--- a/raw_data/20200818_saline/20200818_Sensor0_Test_77.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_77.xlsx
@@ -1,900 +1,1316 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04905BC2-0BB0-4EA7-A7D7-8A7AA81D5326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>68403.226354</v>
+        <v>68403.226353999999</v>
       </c>
       <c r="B2" s="1">
-        <v>19.000896</v>
+        <v>19.000896000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>898.819000</v>
+        <v>898.81899999999996</v>
       </c>
       <c r="D2" s="1">
-        <v>-196.876000</v>
+        <v>-196.876</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>68413.648330</v>
+        <v>68413.648329999996</v>
       </c>
       <c r="G2" s="1">
         <v>19.003791</v>
       </c>
       <c r="H2" s="1">
-        <v>916.765000</v>
+        <v>916.76499999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-167.561000</v>
+        <v>-167.56100000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>68423.874343</v>
+        <v>68423.874343000003</v>
       </c>
       <c r="L2" s="1">
         <v>19.006632</v>
       </c>
       <c r="M2" s="1">
-        <v>940.014000</v>
+        <v>940.01400000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-120.394000</v>
+        <v>-120.39400000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>68434.048250</v>
+        <v>68434.048250000007</v>
       </c>
       <c r="Q2" s="1">
-        <v>19.009458</v>
+        <v>19.009457999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>946.950000</v>
+        <v>946.95</v>
       </c>
       <c r="S2" s="1">
-        <v>-105.031000</v>
+        <v>-105.03100000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>68444.306012</v>
+        <v>68444.306012000001</v>
       </c>
       <c r="V2" s="1">
         <v>19.012307</v>
       </c>
       <c r="W2" s="1">
-        <v>953.859000</v>
+        <v>953.85900000000004</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.891300</v>
+        <v>-90.891300000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>68454.082191</v>
+        <v>68454.082190999994</v>
       </c>
       <c r="AA2" s="1">
-        <v>19.015023</v>
+        <v>19.015022999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>961.415000</v>
+        <v>961.41499999999996</v>
       </c>
       <c r="AC2" s="1">
-        <v>-81.133100</v>
+        <v>-81.133099999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>68464.347859</v>
+        <v>68464.347859000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>19.017874</v>
+        <v>19.017873999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>966.282000</v>
+        <v>966.28200000000004</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.390900</v>
+        <v>-80.390900000000002</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>68474.768803</v>
+        <v>68474.768802999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>19.020769</v>
+        <v>19.020769000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>974.397000</v>
+        <v>974.39700000000005</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.797800</v>
+        <v>-87.797799999999995</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>68485.390662</v>
+        <v>68485.390662000005</v>
       </c>
       <c r="AP2" s="1">
-        <v>19.023720</v>
+        <v>19.023720000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>983.592000</v>
+        <v>983.59199999999998</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.495000</v>
+        <v>-102.495</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>68496.382999</v>
+        <v>68496.382998999994</v>
       </c>
       <c r="AU2" s="1">
-        <v>19.026773</v>
+        <v>19.026772999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>994.986000</v>
+        <v>994.98599999999999</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.789000</v>
+        <v>-123.789</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>68507.496826</v>
+        <v>68507.496826000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>19.029860</v>
+        <v>19.029859999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1004.660000</v>
+        <v>1004.66</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.378000</v>
+        <v>-142.37799999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>68518.487178</v>
+        <v>68518.487177999996</v>
       </c>
       <c r="BE2" s="1">
-        <v>19.032913</v>
+        <v>19.032913000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1050.180000</v>
+        <v>1050.18</v>
       </c>
       <c r="BG2" s="1">
-        <v>-226.375000</v>
+        <v>-226.375</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>68529.476545</v>
+        <v>68529.476544999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>19.035966</v>
+        <v>19.035965999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1129.920000</v>
+        <v>1129.92</v>
       </c>
       <c r="BL2" s="1">
-        <v>-360.509000</v>
+        <v>-360.50900000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>68540.851788</v>
       </c>
       <c r="BO2" s="1">
-        <v>19.039125</v>
+        <v>19.039124999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1261.200000</v>
+        <v>1261.2</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-566.633000</v>
+        <v>-566.63300000000004</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>68551.488494</v>
+        <v>68551.488494000005</v>
       </c>
       <c r="BT2" s="1">
-        <v>19.042080</v>
+        <v>19.042079999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1407.420000</v>
+        <v>1407.42</v>
       </c>
       <c r="BV2" s="1">
-        <v>-785.941000</v>
+        <v>-785.94100000000003</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>68562.196625</v>
+        <v>68562.196624999997</v>
       </c>
       <c r="BY2" s="1">
-        <v>19.045055</v>
+        <v>19.045055000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1567.730000</v>
+        <v>1567.73</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1014.630000</v>
+        <v>-1014.63</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>68573.162179</v>
+        <v>68573.162179000006</v>
       </c>
       <c r="CD2" s="1">
-        <v>19.048101</v>
+        <v>19.048100999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1968.730000</v>
+        <v>1968.73</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1549.100000</v>
+        <v>-1549.1</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>68403.639523</v>
+        <v>68403.639523000005</v>
       </c>
       <c r="B3" s="1">
-        <v>19.001011</v>
+        <v>19.001010999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>898.855000</v>
+        <v>898.85500000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>-196.850000</v>
+        <v>-196.85</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>68414.055508</v>
+        <v>68414.055508000005</v>
       </c>
       <c r="G3" s="1">
-        <v>19.003904</v>
+        <v>19.003903999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>916.358000</v>
+        <v>916.35799999999995</v>
       </c>
       <c r="I3" s="1">
-        <v>-167.359000</v>
+        <v>-167.35900000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>68424.223030</v>
+        <v>68424.223029999994</v>
       </c>
       <c r="L3" s="1">
         <v>19.006729</v>
       </c>
       <c r="M3" s="1">
-        <v>940.040000</v>
+        <v>940.04</v>
       </c>
       <c r="N3" s="1">
-        <v>-120.504000</v>
+        <v>-120.504</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>68434.429673</v>
+        <v>68434.429673000006</v>
       </c>
       <c r="Q3" s="1">
-        <v>19.009564</v>
+        <v>19.009564000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>946.991000</v>
+        <v>946.99099999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-105.004000</v>
+        <v>-105.004</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>68444.688925</v>
+        <v>68444.688924999995</v>
       </c>
       <c r="V3" s="1">
         <v>19.012414</v>
       </c>
       <c r="W3" s="1">
-        <v>953.810000</v>
+        <v>953.81</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.973600</v>
+        <v>-90.973600000000005</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>68454.516656</v>
+        <v>68454.516656000007</v>
       </c>
       <c r="AA3" s="1">
-        <v>19.015144</v>
+        <v>19.015143999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>961.242000</v>
+        <v>961.24199999999996</v>
       </c>
       <c r="AC3" s="1">
-        <v>-81.159500</v>
+        <v>-81.159499999999994</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>68464.773425</v>
+        <v>68464.773425000007</v>
       </c>
       <c r="AF3" s="1">
-        <v>19.017993</v>
+        <v>19.017993000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>966.455000</v>
+        <v>966.45500000000004</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.376200</v>
+        <v>-80.376199999999997</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>68475.195209</v>
+        <v>68475.195208999998</v>
       </c>
       <c r="AK3" s="1">
-        <v>19.020888</v>
+        <v>19.020887999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>974.420000</v>
+        <v>974.42</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.827000</v>
+        <v>-87.826999999999998</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>68485.794142</v>
+        <v>68485.794141999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>19.023832</v>
+        <v>19.023831999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>983.601000</v>
+        <v>983.601</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.499000</v>
+        <v>-102.499</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>68496.766902</v>
+        <v>68496.766902000003</v>
       </c>
       <c r="AU3" s="1">
-        <v>19.026880</v>
+        <v>19.026879999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>995.020000</v>
+        <v>995.02</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.779000</v>
+        <v>-123.779</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>68507.871336</v>
+        <v>68507.871335999997</v>
       </c>
       <c r="AZ3" s="1">
         <v>19.029964</v>
       </c>
       <c r="BA3" s="1">
-        <v>1004.670000</v>
+        <v>1004.67</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.389000</v>
+        <v>-142.38900000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>68518.846779</v>
@@ -903,497 +1319,497 @@
         <v>19.033013</v>
       </c>
       <c r="BF3" s="1">
-        <v>1050.170000</v>
+        <v>1050.17</v>
       </c>
       <c r="BG3" s="1">
-        <v>-226.379000</v>
+        <v>-226.37899999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>68530.235418</v>
+        <v>68530.235417999997</v>
       </c>
       <c r="BJ3" s="1">
-        <v>19.036177</v>
+        <v>19.036176999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1129.930000</v>
+        <v>1129.93</v>
       </c>
       <c r="BL3" s="1">
-        <v>-360.526000</v>
+        <v>-360.52600000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>68541.257517</v>
+        <v>68541.257517000005</v>
       </c>
       <c r="BO3" s="1">
-        <v>19.039238</v>
+        <v>19.039238000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1261.100000</v>
+        <v>1261.0999999999999</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-566.715000</v>
+        <v>-566.71500000000003</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>68551.940877</v>
+        <v>68551.940877000001</v>
       </c>
       <c r="BT3" s="1">
         <v>19.042206</v>
       </c>
       <c r="BU3" s="1">
-        <v>1407.460000</v>
+        <v>1407.46</v>
       </c>
       <c r="BV3" s="1">
-        <v>-785.925000</v>
+        <v>-785.92499999999995</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>68562.661407</v>
+        <v>68562.661407000007</v>
       </c>
       <c r="BY3" s="1">
-        <v>19.045184</v>
+        <v>19.045183999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1567.720000</v>
+        <v>1567.72</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1014.790000</v>
+        <v>-1014.79</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>68574.008848</v>
+        <v>68574.008847999998</v>
       </c>
       <c r="CD3" s="1">
-        <v>19.048336</v>
+        <v>19.048335999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1970.230000</v>
+        <v>1970.23</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1548.880000</v>
+        <v>-1548.88</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>68403.981762</v>
+        <v>68403.981761999996</v>
       </c>
       <c r="B4" s="1">
         <v>19.001106</v>
       </c>
       <c r="C4" s="1">
-        <v>898.804000</v>
+        <v>898.80399999999997</v>
       </c>
       <c r="D4" s="1">
-        <v>-196.878000</v>
+        <v>-196.87799999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>68414.398759</v>
+        <v>68414.398759000003</v>
       </c>
       <c r="G4" s="1">
-        <v>19.004000</v>
+        <v>19.004000000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>916.275000</v>
+        <v>916.27499999999998</v>
       </c>
       <c r="I4" s="1">
-        <v>-166.890000</v>
+        <v>-166.89</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>68424.567750</v>
+        <v>68424.567750000002</v>
       </c>
       <c r="L4" s="1">
-        <v>19.006824</v>
+        <v>19.006824000000002</v>
       </c>
       <c r="M4" s="1">
-        <v>939.951000</v>
+        <v>939.95100000000002</v>
       </c>
       <c r="N4" s="1">
-        <v>-120.401000</v>
+        <v>-120.401</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>68434.856730</v>
+        <v>68434.85673</v>
       </c>
       <c r="Q4" s="1">
-        <v>19.009682</v>
+        <v>19.009682000000002</v>
       </c>
       <c r="R4" s="1">
-        <v>946.988000</v>
+        <v>946.98800000000006</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.992000</v>
+        <v>-104.992</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>68445.113537</v>
+        <v>68445.113536999997</v>
       </c>
       <c r="V4" s="1">
         <v>19.012532</v>
       </c>
       <c r="W4" s="1">
-        <v>953.733000</v>
+        <v>953.73299999999995</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.940000</v>
+        <v>-90.94</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>68454.848014</v>
+        <v>68454.848014000003</v>
       </c>
       <c r="AA4" s="1">
-        <v>19.015236</v>
+        <v>19.015236000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>961.405000</v>
+        <v>961.40499999999997</v>
       </c>
       <c r="AC4" s="1">
-        <v>-81.114300</v>
+        <v>-81.1143</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>68465.076513</v>
+        <v>68465.076513000007</v>
       </c>
       <c r="AF4" s="1">
-        <v>19.018077</v>
+        <v>19.018077000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>966.361000</v>
+        <v>966.36099999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.400800</v>
+        <v>-80.400800000000004</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>68475.539586</v>
+        <v>68475.539585999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>19.020983</v>
+        <v>19.020983000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>974.401000</v>
+        <v>974.40099999999995</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.805500</v>
+        <v>-87.805499999999995</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>68486.152020</v>
+        <v>68486.152019999994</v>
       </c>
       <c r="AP4" s="1">
-        <v>19.023931</v>
+        <v>19.023931000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>983.597000</v>
+        <v>983.59699999999998</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.494000</v>
+        <v>-102.494</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>68497.132422</v>
+        <v>68497.132421999995</v>
       </c>
       <c r="AU4" s="1">
-        <v>19.026981</v>
+        <v>19.026980999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>994.988000</v>
+        <v>994.98800000000006</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.787000</v>
+        <v>-123.78700000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>68508.609879</v>
+        <v>68508.609878999996</v>
       </c>
       <c r="AZ4" s="1">
-        <v>19.030169</v>
+        <v>19.030169000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1004.660000</v>
+        <v>1004.66</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.374000</v>
+        <v>-142.374</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>68519.615576</v>
+        <v>68519.615575999997</v>
       </c>
       <c r="BE4" s="1">
         <v>19.033227</v>
       </c>
       <c r="BF4" s="1">
-        <v>1050.140000</v>
+        <v>1050.1400000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-226.368000</v>
+        <v>-226.36799999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>68530.623787</v>
+        <v>68530.623787000004</v>
       </c>
       <c r="BJ4" s="1">
-        <v>19.036284</v>
+        <v>19.036283999999998</v>
       </c>
       <c r="BK4" s="1">
-        <v>1129.890000</v>
+        <v>1129.8900000000001</v>
       </c>
       <c r="BL4" s="1">
-        <v>-360.505000</v>
+        <v>-360.505</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>68541.679150</v>
+        <v>68541.679149999996</v>
       </c>
       <c r="BO4" s="1">
         <v>19.039355</v>
       </c>
       <c r="BP4" s="1">
-        <v>1261.150000</v>
+        <v>1261.1500000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-566.714000</v>
+        <v>-566.71400000000006</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>68552.350078</v>
+        <v>68552.350078000003</v>
       </c>
       <c r="BT4" s="1">
-        <v>19.042319</v>
+        <v>19.042318999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1407.490000</v>
+        <v>1407.49</v>
       </c>
       <c r="BV4" s="1">
-        <v>-785.862000</v>
+        <v>-785.86199999999997</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>68563.416797</v>
+        <v>68563.416796999998</v>
       </c>
       <c r="BY4" s="1">
-        <v>19.045394</v>
+        <v>19.045394000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1567.770000</v>
+        <v>1567.77</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1014.810000</v>
+        <v>-1014.81</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>68574.262800</v>
+        <v>68574.262799999997</v>
       </c>
       <c r="CD4" s="1">
         <v>19.048406</v>
       </c>
       <c r="CE4" s="1">
-        <v>1969.730000</v>
+        <v>1969.73</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1547.350000</v>
+        <v>-1547.35</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>68404.324993</v>
+        <v>68404.324993000002</v>
       </c>
       <c r="B5" s="1">
-        <v>19.001201</v>
+        <v>19.001200999999998</v>
       </c>
       <c r="C5" s="1">
-        <v>898.627000</v>
+        <v>898.62699999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-196.837000</v>
+        <v>-196.83699999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>68414.746966</v>
+        <v>68414.746966000006</v>
       </c>
       <c r="G5" s="1">
-        <v>19.004096</v>
+        <v>19.004096000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>916.724000</v>
+        <v>916.72400000000005</v>
       </c>
       <c r="I5" s="1">
-        <v>-167.407000</v>
+        <v>-167.40700000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>68424.982896</v>
+        <v>68424.982896000001</v>
       </c>
       <c r="L5" s="1">
-        <v>19.006940</v>
+        <v>19.00694</v>
       </c>
       <c r="M5" s="1">
-        <v>940.121000</v>
+        <v>940.12099999999998</v>
       </c>
       <c r="N5" s="1">
-        <v>-120.441000</v>
+        <v>-120.441</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>68435.153864</v>
+        <v>68435.153864000007</v>
       </c>
       <c r="Q5" s="1">
-        <v>19.009765</v>
+        <v>19.009765000000002</v>
       </c>
       <c r="R5" s="1">
-        <v>947.022000</v>
+        <v>947.02200000000005</v>
       </c>
       <c r="S5" s="1">
-        <v>-105.016000</v>
+        <v>-105.01600000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>68445.373402</v>
+        <v>68445.373401999997</v>
       </c>
       <c r="V5" s="1">
         <v>19.012604</v>
       </c>
       <c r="W5" s="1">
-        <v>953.856000</v>
+        <v>953.85599999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.944600</v>
+        <v>-90.944599999999994</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>68455.194217</v>
+        <v>68455.194216999997</v>
       </c>
       <c r="AA5" s="1">
-        <v>19.015332</v>
+        <v>19.015332000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>961.330000</v>
+        <v>961.33</v>
       </c>
       <c r="AC5" s="1">
-        <v>-81.116700</v>
+        <v>-81.116699999999994</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>68465.415745</v>
+        <v>68465.415745000006</v>
       </c>
       <c r="AF5" s="1">
-        <v>19.018171</v>
+        <v>19.018170999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>966.365000</v>
+        <v>966.36500000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.382800</v>
+        <v>-80.382800000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>68475.889304</v>
+        <v>68475.889303999997</v>
       </c>
       <c r="AK5" s="1">
-        <v>19.021080</v>
+        <v>19.021080000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>974.384000</v>
+        <v>974.38400000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.820500</v>
+        <v>-87.820499999999996</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>68486.871685</v>
+        <v>68486.871685000006</v>
       </c>
       <c r="AP5" s="1">
-        <v>19.024131</v>
+        <v>19.024131000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>983.588000</v>
+        <v>983.58799999999997</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.495000</v>
+        <v>-102.495</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>68497.864555</v>
+        <v>68497.864554999993</v>
       </c>
       <c r="AU5" s="1">
-        <v>19.027185</v>
+        <v>19.027184999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>994.988000</v>
+        <v>994.98800000000006</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.795000</v>
+        <v>-123.795</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>68508.966472</v>
@@ -1402,784 +1818,784 @@
         <v>19.030268</v>
       </c>
       <c r="BA5" s="1">
-        <v>1004.650000</v>
+        <v>1004.65</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.385000</v>
+        <v>-142.38499999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>68519.959801</v>
+        <v>68519.959801000005</v>
       </c>
       <c r="BE5" s="1">
-        <v>19.033322</v>
+        <v>19.033321999999998</v>
       </c>
       <c r="BF5" s="1">
-        <v>1050.170000</v>
+        <v>1050.17</v>
       </c>
       <c r="BG5" s="1">
-        <v>-226.393000</v>
+        <v>-226.393</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>68531.013641</v>
+        <v>68531.013640999998</v>
       </c>
       <c r="BJ5" s="1">
         <v>19.036393</v>
       </c>
       <c r="BK5" s="1">
-        <v>1129.900000</v>
+        <v>1129.9000000000001</v>
       </c>
       <c r="BL5" s="1">
-        <v>-360.497000</v>
+        <v>-360.49700000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>68542.382939</v>
+        <v>68542.382939000003</v>
       </c>
       <c r="BO5" s="1">
-        <v>19.039551</v>
+        <v>19.039550999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1261.130000</v>
+        <v>1261.1300000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-566.691000</v>
+        <v>-566.69100000000003</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>68553.104956</v>
+        <v>68553.104955999996</v>
       </c>
       <c r="BT5" s="1">
-        <v>19.042529</v>
+        <v>19.042528999999998</v>
       </c>
       <c r="BU5" s="1">
-        <v>1407.570000</v>
+        <v>1407.57</v>
       </c>
       <c r="BV5" s="1">
-        <v>-785.954000</v>
+        <v>-785.95399999999995</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>68563.539294</v>
+        <v>68563.539294000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>19.045428</v>
+        <v>19.045428000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1567.640000</v>
+        <v>1567.64</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1014.730000</v>
+        <v>-1014.73</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>68574.798479</v>
+        <v>68574.798479000005</v>
       </c>
       <c r="CD5" s="1">
         <v>19.048555</v>
       </c>
       <c r="CE5" s="1">
-        <v>1968.500000</v>
+        <v>1968.5</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1548.500000</v>
+        <v>-1548.5</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>68404.748081</v>
+        <v>68404.748080999998</v>
       </c>
       <c r="B6" s="1">
-        <v>19.001319</v>
+        <v>19.001318999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>898.827000</v>
+        <v>898.827</v>
       </c>
       <c r="D6" s="1">
-        <v>-196.838000</v>
+        <v>-196.83799999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>68415.256856</v>
+        <v>68415.256856000007</v>
       </c>
       <c r="G6" s="1">
-        <v>19.004238</v>
+        <v>19.004238000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>916.622000</v>
+        <v>916.62199999999996</v>
       </c>
       <c r="I6" s="1">
-        <v>-167.275000</v>
+        <v>-167.27500000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>68425.281494</v>
+        <v>68425.281493999995</v>
       </c>
       <c r="L6" s="1">
         <v>19.007023</v>
       </c>
       <c r="M6" s="1">
-        <v>940.037000</v>
+        <v>940.03700000000003</v>
       </c>
       <c r="N6" s="1">
-        <v>-120.497000</v>
+        <v>-120.497</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>68435.499543</v>
+        <v>68435.499542999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>19.009861</v>
+        <v>19.009861000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>947.024000</v>
+        <v>947.024</v>
       </c>
       <c r="S6" s="1">
-        <v>-105.029000</v>
+        <v>-105.029</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>68445.716667</v>
+        <v>68445.716667000001</v>
       </c>
       <c r="V6" s="1">
-        <v>19.012699</v>
+        <v>19.012699000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>953.824000</v>
+        <v>953.82399999999996</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.990100</v>
+        <v>-90.990099999999998</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>68455.543900</v>
+        <v>68455.543900000004</v>
       </c>
       <c r="AA6" s="1">
-        <v>19.015429</v>
+        <v>19.015429000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>961.372000</v>
+        <v>961.37199999999996</v>
       </c>
       <c r="AC6" s="1">
-        <v>-81.090300</v>
+        <v>-81.090299999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>68465.763485</v>
+        <v>68465.763485000003</v>
       </c>
       <c r="AF6" s="1">
-        <v>19.018268</v>
+        <v>19.018267999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>966.467000</v>
+        <v>966.46699999999998</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.383400</v>
+        <v>-80.383399999999995</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>68476.585153</v>
+        <v>68476.585153000007</v>
       </c>
       <c r="AK6" s="1">
-        <v>19.021274</v>
+        <v>19.021273999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>974.384000</v>
+        <v>974.38400000000001</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.807200</v>
+        <v>-87.807199999999995</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>68487.232275</v>
+        <v>68487.232275000002</v>
       </c>
       <c r="AP6" s="1">
         <v>19.024231</v>
       </c>
       <c r="AQ6" s="1">
-        <v>983.593000</v>
+        <v>983.59299999999996</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.506000</v>
+        <v>-102.506</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>68498.243034</v>
+        <v>68498.243033999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>19.027290</v>
+        <v>19.027290000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>995.009000</v>
+        <v>995.00900000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.794000</v>
+        <v>-123.794</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>68509.327064</v>
+        <v>68509.327063999997</v>
       </c>
       <c r="AZ6" s="1">
         <v>19.030369</v>
       </c>
       <c r="BA6" s="1">
-        <v>1004.650000</v>
+        <v>1004.65</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.388000</v>
+        <v>-142.38800000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>68520.629432</v>
+        <v>68520.629432000002</v>
       </c>
       <c r="BE6" s="1">
-        <v>19.033508</v>
+        <v>19.033508000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1050.160000</v>
+        <v>1050.1600000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-226.404000</v>
+        <v>-226.404</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>68531.694188</v>
+        <v>68531.694187999994</v>
       </c>
       <c r="BJ6" s="1">
-        <v>19.036582</v>
+        <v>19.036581999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1129.910000</v>
+        <v>1129.9100000000001</v>
       </c>
       <c r="BL6" s="1">
-        <v>-360.531000</v>
+        <v>-360.53100000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>68542.513882</v>
+        <v>68542.513881999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>19.039587</v>
+        <v>19.039587000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1261.170000</v>
+        <v>1261.17</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-566.763000</v>
+        <v>-566.76300000000003</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>68553.220028</v>
+        <v>68553.220027999996</v>
       </c>
       <c r="BT6" s="1">
-        <v>19.042561</v>
+        <v>19.042560999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1407.680000</v>
+        <v>1407.68</v>
       </c>
       <c r="BV6" s="1">
-        <v>-785.900000</v>
+        <v>-785.9</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>68563.976766</v>
+        <v>68563.976766000007</v>
       </c>
       <c r="BY6" s="1">
-        <v>19.045549</v>
+        <v>19.045549000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1567.850000</v>
+        <v>1567.85</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1014.900000</v>
+        <v>-1014.9</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>68575.339151</v>
+        <v>68575.339150999993</v>
       </c>
       <c r="CD6" s="1">
-        <v>19.048705</v>
+        <v>19.048705000000002</v>
       </c>
       <c r="CE6" s="1">
-        <v>1970.390000</v>
+        <v>1970.39</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1548.660000</v>
+        <v>-1548.66</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>68405.039728</v>
+        <v>68405.039728000003</v>
       </c>
       <c r="B7" s="1">
-        <v>19.001400</v>
+        <v>19.0014</v>
       </c>
       <c r="C7" s="1">
-        <v>898.944000</v>
+        <v>898.94399999999996</v>
       </c>
       <c r="D7" s="1">
-        <v>-196.978000</v>
+        <v>-196.97800000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>68415.434882</v>
+        <v>68415.434882000001</v>
       </c>
       <c r="G7" s="1">
-        <v>19.004287</v>
+        <v>19.004287000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>916.564000</v>
+        <v>916.56399999999996</v>
       </c>
       <c r="I7" s="1">
-        <v>-167.447000</v>
+        <v>-167.447</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>68425.629158</v>
+        <v>68425.629157999996</v>
       </c>
       <c r="L7" s="1">
-        <v>19.007119</v>
+        <v>19.007118999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>939.955000</v>
+        <v>939.95500000000004</v>
       </c>
       <c r="N7" s="1">
-        <v>-120.405000</v>
+        <v>-120.405</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>68435.848786</v>
+        <v>68435.848786000002</v>
       </c>
       <c r="Q7" s="1">
-        <v>19.009958</v>
+        <v>19.009958000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>946.975000</v>
+        <v>946.97500000000002</v>
       </c>
       <c r="S7" s="1">
-        <v>-105.018000</v>
+        <v>-105.018</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>68446.059906</v>
+        <v>68446.059905999995</v>
       </c>
       <c r="V7" s="1">
         <v>19.012794</v>
       </c>
       <c r="W7" s="1">
-        <v>953.879000</v>
+        <v>953.87900000000002</v>
       </c>
       <c r="X7" s="1">
-        <v>-91.047400</v>
+        <v>-91.047399999999996</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>68456.240749</v>
+        <v>68456.240749000004</v>
       </c>
       <c r="AA7" s="1">
         <v>19.015622</v>
       </c>
       <c r="AB7" s="1">
-        <v>961.350000</v>
+        <v>961.35</v>
       </c>
       <c r="AC7" s="1">
-        <v>-81.132900</v>
+        <v>-81.132900000000006</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>68466.449904</v>
+        <v>68466.449903999994</v>
       </c>
       <c r="AF7" s="1">
-        <v>19.018458</v>
+        <v>19.018457999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>966.443000</v>
+        <v>966.44299999999998</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.514200</v>
+        <v>-80.514200000000002</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>68476.936353</v>
+        <v>68476.936352999997</v>
       </c>
       <c r="AK7" s="1">
-        <v>19.021371</v>
+        <v>19.021370999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>974.390000</v>
+        <v>974.39</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.828800</v>
+        <v>-87.828800000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>68487.592868</v>
+        <v>68487.592868000007</v>
       </c>
       <c r="AP7" s="1">
         <v>19.024331</v>
       </c>
       <c r="AQ7" s="1">
-        <v>983.591000</v>
+        <v>983.59100000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.500000</v>
+        <v>-102.5</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>68498.610005</v>
+        <v>68498.610004999995</v>
       </c>
       <c r="AU7" s="1">
-        <v>19.027392</v>
+        <v>19.027391999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>995.004000</v>
+        <v>995.00400000000002</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.815000</v>
+        <v>-123.815</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>68509.992080</v>
+        <v>68509.992079999996</v>
       </c>
       <c r="AZ7" s="1">
-        <v>19.030553</v>
+        <v>19.030553000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1004.660000</v>
+        <v>1004.66</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.413000</v>
+        <v>-142.41300000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>68521.044060</v>
+        <v>68521.04406</v>
       </c>
       <c r="BE7" s="1">
-        <v>19.033623</v>
+        <v>19.033622999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1050.180000</v>
+        <v>1050.18</v>
       </c>
       <c r="BG7" s="1">
-        <v>-226.374000</v>
+        <v>-226.374</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>68531.804296</v>
+        <v>68531.804296000002</v>
       </c>
       <c r="BJ7" s="1">
-        <v>19.036612</v>
+        <v>19.036612000000002</v>
       </c>
       <c r="BK7" s="1">
-        <v>1129.910000</v>
+        <v>1129.9100000000001</v>
       </c>
       <c r="BL7" s="1">
-        <v>-360.523000</v>
+        <v>-360.52300000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>68542.924075</v>
+        <v>68542.924075000003</v>
       </c>
       <c r="BO7" s="1">
-        <v>19.039701</v>
+        <v>19.039701000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1261.150000</v>
+        <v>1261.1500000000001</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-566.711000</v>
+        <v>-566.71100000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>68553.648608</v>
+        <v>68553.648608000003</v>
       </c>
       <c r="BT7" s="1">
-        <v>19.042680</v>
+        <v>19.042680000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1407.640000</v>
+        <v>1407.64</v>
       </c>
       <c r="BV7" s="1">
-        <v>-785.904000</v>
+        <v>-785.904</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>68564.437196</v>
+        <v>68564.437195999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>19.045677</v>
+        <v>19.045677000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1567.790000</v>
+        <v>1567.79</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1014.820000</v>
+        <v>-1014.82</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>68575.878271</v>
+        <v>68575.878270999994</v>
       </c>
       <c r="CD7" s="1">
         <v>19.048855</v>
       </c>
       <c r="CE7" s="1">
-        <v>1968.460000</v>
+        <v>1968.46</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1547.460000</v>
+        <v>-1547.46</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>68405.381499</v>
+        <v>68405.381498999996</v>
       </c>
       <c r="B8" s="1">
-        <v>19.001495</v>
+        <v>19.001494999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>898.842000</v>
+        <v>898.84199999999998</v>
       </c>
       <c r="D8" s="1">
-        <v>-196.920000</v>
+        <v>-196.92</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>68415.779105</v>
+        <v>68415.779104999994</v>
       </c>
       <c r="G8" s="1">
-        <v>19.004383</v>
+        <v>19.004383000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>916.614000</v>
+        <v>916.61400000000003</v>
       </c>
       <c r="I8" s="1">
-        <v>-167.074000</v>
+        <v>-167.07400000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>68425.974900</v>
+        <v>68425.974900000001</v>
       </c>
       <c r="L8" s="1">
-        <v>19.007215</v>
+        <v>19.007214999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>940.064000</v>
+        <v>940.06399999999996</v>
       </c>
       <c r="N8" s="1">
-        <v>-120.480000</v>
+        <v>-120.48</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>68436.546102</v>
+        <v>68436.546101999993</v>
       </c>
       <c r="Q8" s="1">
-        <v>19.010152</v>
+        <v>19.010152000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>946.965000</v>
+        <v>946.96500000000003</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.976000</v>
+        <v>-104.976</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>68446.749304</v>
+        <v>68446.749303999997</v>
       </c>
       <c r="V8" s="1">
-        <v>19.012986</v>
+        <v>19.012986000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>953.796000</v>
+        <v>953.79600000000005</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.956400</v>
+        <v>-90.956400000000002</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>68456.585963</v>
+        <v>68456.585963000005</v>
       </c>
       <c r="AA8" s="1">
         <v>19.015718</v>
       </c>
       <c r="AB8" s="1">
-        <v>961.367000</v>
+        <v>961.36699999999996</v>
       </c>
       <c r="AC8" s="1">
-        <v>-81.133600</v>
+        <v>-81.133600000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>68466.791150</v>
+        <v>68466.791150000005</v>
       </c>
       <c r="AF8" s="1">
-        <v>19.018553</v>
+        <v>19.018553000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>966.411000</v>
+        <v>966.41099999999994</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.423300</v>
+        <v>-80.423299999999998</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>68477.283025</v>
+        <v>68477.283024999997</v>
       </c>
       <c r="AK8" s="1">
-        <v>19.021468</v>
+        <v>19.021467999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>974.400000</v>
+        <v>974.4</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.810800</v>
+        <v>-87.8108</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>68488.261507</v>
+        <v>68488.261507000003</v>
       </c>
       <c r="AP8" s="1">
-        <v>19.024517</v>
+        <v>19.024516999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>983.620000</v>
+        <v>983.62</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.491000</v>
+        <v>-102.491</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>68499.289027</v>
+        <v>68499.289027000006</v>
       </c>
       <c r="AU8" s="1">
-        <v>19.027580</v>
+        <v>19.02758</v>
       </c>
       <c r="AV8" s="1">
-        <v>995.025000</v>
+        <v>995.02499999999998</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.804000</v>
+        <v>-123.804</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>68510.401397</v>
+        <v>68510.401396999994</v>
       </c>
       <c r="AZ8" s="1">
-        <v>19.030667</v>
+        <v>19.030667000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1004.650000</v>
+        <v>1004.65</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.365000</v>
+        <v>-142.36500000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>68521.430966</v>
@@ -2188,1979 +2604,1979 @@
         <v>19.033731</v>
       </c>
       <c r="BF8" s="1">
-        <v>1050.170000</v>
+        <v>1050.17</v>
       </c>
       <c r="BG8" s="1">
-        <v>-226.409000</v>
+        <v>-226.40899999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>68532.162904</v>
+        <v>68532.162903999997</v>
       </c>
       <c r="BJ8" s="1">
-        <v>19.036712</v>
+        <v>19.036712000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1129.880000</v>
+        <v>1129.8800000000001</v>
       </c>
       <c r="BL8" s="1">
-        <v>-360.472000</v>
+        <v>-360.47199999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>68543.318889</v>
+        <v>68543.318889000002</v>
       </c>
       <c r="BO8" s="1">
         <v>19.039811</v>
       </c>
       <c r="BP8" s="1">
-        <v>1261.150000</v>
+        <v>1261.1500000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-566.693000</v>
+        <v>-566.69299999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>68554.061777</v>
+        <v>68554.061776999995</v>
       </c>
       <c r="BT8" s="1">
-        <v>19.042795</v>
+        <v>19.042795000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>1407.810000</v>
+        <v>1407.81</v>
       </c>
       <c r="BV8" s="1">
-        <v>-785.870000</v>
+        <v>-785.87</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>68564.883960</v>
+        <v>68564.883960000006</v>
       </c>
       <c r="BY8" s="1">
-        <v>19.045801</v>
+        <v>19.045801000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1567.720000</v>
+        <v>1567.72</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1014.670000</v>
+        <v>-1014.67</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>68576.419491</v>
+        <v>68576.419490999993</v>
       </c>
       <c r="CD8" s="1">
-        <v>19.049005</v>
+        <v>19.049005000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1969.770000</v>
+        <v>1969.77</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1549.050000</v>
+        <v>-1549.05</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>68405.722730</v>
+        <v>68405.722729999994</v>
       </c>
       <c r="B9" s="1">
-        <v>19.001590</v>
+        <v>19.00159</v>
       </c>
       <c r="C9" s="1">
-        <v>898.863000</v>
+        <v>898.86300000000006</v>
       </c>
       <c r="D9" s="1">
-        <v>-197.012000</v>
+        <v>-197.012</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>68416.467554</v>
+        <v>68416.467554000003</v>
       </c>
       <c r="G9" s="1">
-        <v>19.004574</v>
+        <v>19.004574000000002</v>
       </c>
       <c r="H9" s="1">
-        <v>916.686000</v>
+        <v>916.68600000000004</v>
       </c>
       <c r="I9" s="1">
-        <v>-167.321000</v>
+        <v>-167.321</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>68426.668772</v>
+        <v>68426.668772000005</v>
       </c>
       <c r="L9" s="1">
-        <v>19.007408</v>
+        <v>19.007408000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>940.041000</v>
+        <v>940.04100000000005</v>
       </c>
       <c r="N9" s="1">
-        <v>-120.380000</v>
+        <v>-120.38</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>68436.894294</v>
+        <v>68436.894293999998</v>
       </c>
       <c r="Q9" s="1">
-        <v>19.010248</v>
+        <v>19.010248000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>946.982000</v>
+        <v>946.98199999999997</v>
       </c>
       <c r="S9" s="1">
-        <v>-105.046000</v>
+        <v>-105.04600000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>68447.091049</v>
+        <v>68447.091048999995</v>
       </c>
       <c r="V9" s="1">
         <v>19.013081</v>
       </c>
       <c r="W9" s="1">
-        <v>953.928000</v>
+        <v>953.928</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.866300</v>
+        <v>-90.866299999999995</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>68456.937167</v>
+        <v>68456.937166999996</v>
       </c>
       <c r="AA9" s="1">
-        <v>19.015816</v>
+        <v>19.015816000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>961.332000</v>
+        <v>961.33199999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-81.116800</v>
+        <v>-81.116799999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>68467.139342</v>
+        <v>68467.139341999995</v>
       </c>
       <c r="AF9" s="1">
-        <v>19.018650</v>
+        <v>19.018650000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>966.354000</v>
+        <v>966.35400000000004</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.429400</v>
+        <v>-80.429400000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>68477.940256</v>
+        <v>68477.940256000002</v>
       </c>
       <c r="AK9" s="1">
-        <v>19.021650</v>
+        <v>19.021650000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>974.386000</v>
+        <v>974.38599999999997</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.795300</v>
+        <v>-87.795299999999997</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>68488.702418</v>
+        <v>68488.702418000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>19.024640</v>
+        <v>19.024640000000002</v>
       </c>
       <c r="AQ9" s="1">
-        <v>983.619000</v>
+        <v>983.61900000000003</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.487000</v>
+        <v>-102.48699999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>68499.732946</v>
+        <v>68499.732946000004</v>
       </c>
       <c r="AU9" s="1">
         <v>19.027704</v>
       </c>
       <c r="AV9" s="1">
-        <v>995.026000</v>
+        <v>995.02599999999995</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.801000</v>
+        <v>-123.801</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>68510.785300</v>
+        <v>68510.785300000003</v>
       </c>
       <c r="AZ9" s="1">
-        <v>19.030774</v>
+        <v>19.030774000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1004.670000</v>
+        <v>1004.67</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.393000</v>
+        <v>-142.393</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>68521.793046</v>
+        <v>68521.793046000006</v>
       </c>
       <c r="BE9" s="1">
-        <v>19.033831</v>
+        <v>19.033830999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1050.150000</v>
+        <v>1050.1500000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-226.381000</v>
+        <v>-226.381</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>68532.539989</v>
+        <v>68532.539988999997</v>
       </c>
       <c r="BJ9" s="1">
-        <v>19.036817</v>
+        <v>19.036816999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1129.910000</v>
+        <v>1129.9100000000001</v>
       </c>
       <c r="BL9" s="1">
-        <v>-360.519000</v>
+        <v>-360.51900000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>68543.742502</v>
+        <v>68543.742501999994</v>
       </c>
       <c r="BO9" s="1">
         <v>19.039928</v>
       </c>
       <c r="BP9" s="1">
-        <v>1261.150000</v>
+        <v>1261.1500000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-566.739000</v>
+        <v>-566.73900000000003</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>68554.612335</v>
+        <v>68554.612334999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>19.042948</v>
+        <v>19.042947999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1407.820000</v>
+        <v>1407.82</v>
       </c>
       <c r="BV9" s="1">
-        <v>-785.917000</v>
+        <v>-785.91700000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>68565.341788</v>
+        <v>68565.341788000005</v>
       </c>
       <c r="BY9" s="1">
         <v>19.045928</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1567.760000</v>
+        <v>1567.76</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1014.770000</v>
+        <v>-1014.77</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>68576.957596</v>
+        <v>68576.957595999993</v>
       </c>
       <c r="CD9" s="1">
-        <v>19.049155</v>
+        <v>19.049154999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1969.870000</v>
+        <v>1969.87</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1547.300000</v>
+        <v>-1547.3</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>68406.405711</v>
+        <v>68406.405710999999</v>
       </c>
       <c r="B10" s="1">
-        <v>19.001779</v>
+        <v>19.001778999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>898.785000</v>
+        <v>898.78499999999997</v>
       </c>
       <c r="D10" s="1">
-        <v>-196.862000</v>
+        <v>-196.86199999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>68416.811776</v>
+        <v>68416.811776000002</v>
       </c>
       <c r="G10" s="1">
-        <v>19.004670</v>
+        <v>19.004670000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>916.528000</v>
+        <v>916.52800000000002</v>
       </c>
       <c r="I10" s="1">
-        <v>-167.424000</v>
+        <v>-167.42400000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>68427.013530</v>
+        <v>68427.013529999997</v>
       </c>
       <c r="L10" s="1">
-        <v>19.007504</v>
+        <v>19.007504000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>940.012000</v>
+        <v>940.01199999999994</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.543000</v>
+        <v>-120.54300000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>68437.243013</v>
+        <v>68437.243012999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>19.010345</v>
+        <v>19.010345000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>947.001000</v>
+        <v>947.00099999999998</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.999000</v>
+        <v>-104.999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>68447.438744</v>
+        <v>68447.438743999999</v>
       </c>
       <c r="V10" s="1">
-        <v>19.013177</v>
+        <v>19.013176999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>953.807000</v>
+        <v>953.80700000000002</v>
       </c>
       <c r="X10" s="1">
-        <v>-91.006300</v>
+        <v>-91.006299999999996</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>68457.590858</v>
+        <v>68457.590857999996</v>
       </c>
       <c r="AA10" s="1">
-        <v>19.015997</v>
+        <v>19.015996999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>961.329000</v>
+        <v>961.32899999999995</v>
       </c>
       <c r="AC10" s="1">
-        <v>-81.076400</v>
+        <v>-81.076400000000007</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>68467.748466</v>
+        <v>68467.748466000005</v>
       </c>
       <c r="AF10" s="1">
-        <v>19.018819</v>
+        <v>19.018819000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>966.411000</v>
+        <v>966.41099999999994</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.385900</v>
+        <v>-80.385900000000007</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>68478.330588</v>
+        <v>68478.330587999997</v>
       </c>
       <c r="AK10" s="1">
-        <v>19.021758</v>
+        <v>19.021757999999998</v>
       </c>
       <c r="AL10" s="1">
-        <v>974.387000</v>
+        <v>974.38699999999994</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.822200</v>
+        <v>-87.822199999999995</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>68489.061521</v>
+        <v>68489.061520999996</v>
       </c>
       <c r="AP10" s="1">
         <v>19.024739</v>
       </c>
       <c r="AQ10" s="1">
-        <v>983.592000</v>
+        <v>983.59199999999998</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.494000</v>
+        <v>-102.494</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>68500.095531</v>
+        <v>68500.095530999999</v>
       </c>
       <c r="AU10" s="1">
         <v>19.027804</v>
       </c>
       <c r="AV10" s="1">
-        <v>994.999000</v>
+        <v>994.99900000000002</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.814000</v>
+        <v>-123.81399999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>68511.143908</v>
+        <v>68511.143907999998</v>
       </c>
       <c r="AZ10" s="1">
         <v>19.030873</v>
       </c>
       <c r="BA10" s="1">
-        <v>1004.670000</v>
+        <v>1004.67</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.375000</v>
+        <v>-142.375</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>68522.206213</v>
+        <v>68522.206212999998</v>
       </c>
       <c r="BE10" s="1">
         <v>19.033946</v>
       </c>
       <c r="BF10" s="1">
-        <v>1050.170000</v>
+        <v>1050.17</v>
       </c>
       <c r="BG10" s="1">
-        <v>-226.408000</v>
+        <v>-226.40799999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>68532.966921</v>
+        <v>68532.966920999999</v>
       </c>
       <c r="BJ10" s="1">
         <v>19.036935</v>
       </c>
       <c r="BK10" s="1">
-        <v>1129.920000</v>
+        <v>1129.92</v>
       </c>
       <c r="BL10" s="1">
-        <v>-360.509000</v>
+        <v>-360.50900000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>68544.138280</v>
+        <v>68544.138279999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>19.040038</v>
+        <v>19.040037999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1261.180000</v>
+        <v>1261.18</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-566.732000</v>
+        <v>-566.73199999999997</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>68554.946105</v>
+        <v>68554.946104999995</v>
       </c>
       <c r="BT10" s="1">
-        <v>19.043041</v>
+        <v>19.043040999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1407.890000</v>
+        <v>1407.89</v>
       </c>
       <c r="BV10" s="1">
-        <v>-785.877000</v>
+        <v>-785.87699999999995</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>68565.788652</v>
+        <v>68565.788652000003</v>
       </c>
       <c r="BY10" s="1">
         <v>19.046052</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1567.800000</v>
+        <v>1567.8</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1014.750000</v>
+        <v>-1014.75</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>68577.498701</v>
+        <v>68577.498701000004</v>
       </c>
       <c r="CD10" s="1">
         <v>19.049305</v>
       </c>
       <c r="CE10" s="1">
-        <v>1968.520000</v>
+        <v>1968.52</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1548.770000</v>
+        <v>-1548.77</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>68406.746957</v>
+        <v>68406.746956999996</v>
       </c>
       <c r="B11" s="1">
-        <v>19.001874</v>
+        <v>19.001874000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>898.843000</v>
+        <v>898.84299999999996</v>
       </c>
       <c r="D11" s="1">
-        <v>-196.988000</v>
+        <v>-196.988</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>68417.157487</v>
+        <v>68417.157487000004</v>
       </c>
       <c r="G11" s="1">
         <v>19.004766</v>
       </c>
       <c r="H11" s="1">
-        <v>916.480000</v>
+        <v>916.48</v>
       </c>
       <c r="I11" s="1">
-        <v>-167.203000</v>
+        <v>-167.203</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>68427.360195</v>
+        <v>68427.360195000001</v>
       </c>
       <c r="L11" s="1">
-        <v>19.007600</v>
+        <v>19.0076</v>
       </c>
       <c r="M11" s="1">
-        <v>940.017000</v>
+        <v>940.01700000000005</v>
       </c>
       <c r="N11" s="1">
-        <v>-120.379000</v>
+        <v>-120.379</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>68437.893772</v>
+        <v>68437.893771999996</v>
       </c>
       <c r="Q11" s="1">
-        <v>19.010526</v>
+        <v>19.010525999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>947.008000</v>
+        <v>947.00800000000004</v>
       </c>
       <c r="S11" s="1">
-        <v>-105.015000</v>
+        <v>-105.015</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>68448.086519</v>
+        <v>68448.086519000004</v>
       </c>
       <c r="V11" s="1">
-        <v>19.013357</v>
+        <v>19.013356999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>953.725000</v>
+        <v>953.72500000000002</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.927900</v>
+        <v>-90.927899999999994</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>68457.982231</v>
+        <v>68457.982231000002</v>
       </c>
       <c r="AA11" s="1">
-        <v>19.016106</v>
+        <v>19.016106000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>961.316000</v>
+        <v>961.31600000000003</v>
       </c>
       <c r="AC11" s="1">
-        <v>-81.079900</v>
+        <v>-81.079899999999995</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>68468.171052</v>
+        <v>68468.171052000005</v>
       </c>
       <c r="AF11" s="1">
         <v>19.018936</v>
       </c>
       <c r="AG11" s="1">
-        <v>966.441000</v>
+        <v>966.44100000000003</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.389100</v>
+        <v>-80.389099999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>68478.678270</v>
+        <v>68478.678270000004</v>
       </c>
       <c r="AK11" s="1">
-        <v>19.021855</v>
+        <v>19.021854999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>974.389000</v>
+        <v>974.38900000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.824700</v>
+        <v>-87.824700000000007</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>68489.419143</v>
+        <v>68489.419143000006</v>
       </c>
       <c r="AP11" s="1">
         <v>19.024839</v>
       </c>
       <c r="AQ11" s="1">
-        <v>983.582000</v>
+        <v>983.58199999999999</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.497000</v>
+        <v>-102.497</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>68500.461607</v>
+        <v>68500.461607000005</v>
       </c>
       <c r="AU11" s="1">
-        <v>19.027906</v>
+        <v>19.027906000000002</v>
       </c>
       <c r="AV11" s="1">
-        <v>995.018000</v>
+        <v>995.01800000000003</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.780000</v>
+        <v>-123.78</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>68511.564515</v>
+        <v>68511.564515000005</v>
       </c>
       <c r="AZ11" s="1">
-        <v>19.030990</v>
+        <v>19.030989999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1004.670000</v>
+        <v>1004.67</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.403000</v>
+        <v>-142.40299999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>68522.515686</v>
+        <v>68522.515685999999</v>
       </c>
       <c r="BE11" s="1">
         <v>19.034032</v>
       </c>
       <c r="BF11" s="1">
-        <v>1050.140000</v>
+        <v>1050.1400000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-226.370000</v>
+        <v>-226.37</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>68533.288326</v>
+        <v>68533.288325999994</v>
       </c>
       <c r="BJ11" s="1">
         <v>19.037025</v>
       </c>
       <c r="BK11" s="1">
-        <v>1129.920000</v>
+        <v>1129.92</v>
       </c>
       <c r="BL11" s="1">
-        <v>-360.529000</v>
+        <v>-360.529</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>68544.558427</v>
+        <v>68544.558426999996</v>
       </c>
       <c r="BO11" s="1">
-        <v>19.040155</v>
+        <v>19.040154999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1261.140000</v>
+        <v>1261.1400000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-566.723000</v>
+        <v>-566.72299999999996</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>68555.333020</v>
+        <v>68555.333020000005</v>
       </c>
       <c r="BT11" s="1">
-        <v>19.043148</v>
+        <v>19.043147999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1407.880000</v>
+        <v>1407.88</v>
       </c>
       <c r="BV11" s="1">
-        <v>-785.888000</v>
+        <v>-785.88800000000003</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>68566.209756</v>
+        <v>68566.209755999997</v>
       </c>
       <c r="BY11" s="1">
-        <v>19.046169</v>
+        <v>19.046168999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1567.790000</v>
+        <v>1567.79</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1014.820000</v>
+        <v>-1014.82</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>68578.035964</v>
+        <v>68578.035963999995</v>
       </c>
       <c r="CD11" s="1">
-        <v>19.049454</v>
+        <v>19.049454000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1970.660000</v>
+        <v>1970.66</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1548.590000</v>
+        <v>-1548.59</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>68407.092173</v>
+        <v>68407.092172999997</v>
       </c>
       <c r="B12" s="1">
-        <v>19.001970</v>
+        <v>19.00197</v>
       </c>
       <c r="C12" s="1">
-        <v>898.950000</v>
+        <v>898.95</v>
       </c>
       <c r="D12" s="1">
-        <v>-196.949000</v>
+        <v>-196.94900000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>68417.804304</v>
+        <v>68417.804304000005</v>
       </c>
       <c r="G12" s="1">
         <v>19.004946</v>
       </c>
       <c r="H12" s="1">
-        <v>917.098000</v>
+        <v>917.09799999999996</v>
       </c>
       <c r="I12" s="1">
-        <v>-167.220000</v>
+        <v>-167.22</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>68428.004993</v>
+        <v>68428.004992999995</v>
       </c>
       <c r="L12" s="1">
-        <v>19.007779</v>
+        <v>19.007778999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>940.081000</v>
+        <v>940.08100000000002</v>
       </c>
       <c r="N12" s="1">
-        <v>-120.416000</v>
+        <v>-120.416</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>68438.287599</v>
+        <v>68438.287599000003</v>
       </c>
       <c r="Q12" s="1">
-        <v>19.010635</v>
+        <v>19.010635000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>947.002000</v>
+        <v>947.00199999999995</v>
       </c>
       <c r="S12" s="1">
-        <v>-105.006000</v>
+        <v>-105.006</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>68448.467942</v>
+        <v>68448.467942000003</v>
       </c>
       <c r="V12" s="1">
-        <v>19.013463</v>
+        <v>19.013463000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>953.775000</v>
+        <v>953.77499999999998</v>
       </c>
       <c r="X12" s="1">
-        <v>-91.006100</v>
+        <v>-91.006100000000004</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>68458.331882</v>
+        <v>68458.331881999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>19.016203</v>
+        <v>19.016203000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>961.366000</v>
+        <v>961.36599999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-81.029100</v>
+        <v>-81.0291</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>68468.513294</v>
+        <v>68468.513294000004</v>
       </c>
       <c r="AF12" s="1">
-        <v>19.019031</v>
+        <v>19.019030999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>966.485000</v>
+        <v>966.48500000000001</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.478200</v>
+        <v>-80.478200000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>68479.028157</v>
+        <v>68479.028156999993</v>
       </c>
       <c r="AK12" s="1">
-        <v>19.021952</v>
+        <v>19.021951999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>974.391000</v>
+        <v>974.39099999999996</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.841600</v>
+        <v>-87.8416</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>68489.831849</v>
+        <v>68489.831848999995</v>
       </c>
       <c r="AP12" s="1">
         <v>19.024953</v>
       </c>
       <c r="AQ12" s="1">
-        <v>983.591000</v>
+        <v>983.59100000000001</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.514000</v>
+        <v>-102.514</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>68500.883169</v>
+        <v>68500.883168999993</v>
       </c>
       <c r="AU12" s="1">
-        <v>19.028023</v>
+        <v>19.028023000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>995.014000</v>
+        <v>995.01400000000001</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.828000</v>
+        <v>-123.828</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>68511.861122</v>
+        <v>68511.861122000002</v>
       </c>
       <c r="AZ12" s="1">
-        <v>19.031073</v>
+        <v>19.031072999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1004.660000</v>
+        <v>1004.66</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.380000</v>
+        <v>-142.38</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>68522.877764</v>
+        <v>68522.877764000004</v>
       </c>
       <c r="BE12" s="1">
-        <v>19.034133</v>
+        <v>19.034133000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1050.150000</v>
+        <v>1050.1500000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-226.396000</v>
+        <v>-226.39599999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>68533.688070</v>
+        <v>68533.688070000004</v>
       </c>
       <c r="BJ12" s="1">
         <v>19.037136</v>
       </c>
       <c r="BK12" s="1">
-        <v>1129.880000</v>
+        <v>1129.8800000000001</v>
       </c>
       <c r="BL12" s="1">
-        <v>-360.499000</v>
+        <v>-360.49900000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>68544.954702</v>
+        <v>68544.954702000003</v>
       </c>
       <c r="BO12" s="1">
-        <v>19.040265</v>
+        <v>19.040265000000002</v>
       </c>
       <c r="BP12" s="1">
-        <v>1261.140000</v>
+        <v>1261.1400000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-566.756000</v>
+        <v>-566.75599999999997</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>68555.767513</v>
+        <v>68555.767512999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>19.043269</v>
+        <v>19.043268999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1407.930000</v>
+        <v>1407.93</v>
       </c>
       <c r="BV12" s="1">
-        <v>-785.969000</v>
+        <v>-785.96900000000005</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>68566.632874</v>
+        <v>68566.632874000003</v>
       </c>
       <c r="BY12" s="1">
         <v>19.046287</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1567.810000</v>
+        <v>1567.81</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1014.720000</v>
+        <v>-1014.72</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>68578.578490</v>
+        <v>68578.57849</v>
       </c>
       <c r="CD12" s="1">
         <v>19.049605</v>
       </c>
       <c r="CE12" s="1">
-        <v>1968.460000</v>
+        <v>1968.46</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1547.630000</v>
+        <v>-1547.63</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>68407.751852</v>
+        <v>68407.751852000001</v>
       </c>
       <c r="B13" s="1">
         <v>19.002153</v>
       </c>
       <c r="C13" s="1">
-        <v>898.877000</v>
+        <v>898.87699999999995</v>
       </c>
       <c r="D13" s="1">
-        <v>-196.939000</v>
+        <v>-196.93899999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>68418.190159</v>
+        <v>68418.190159000005</v>
       </c>
       <c r="G13" s="1">
         <v>19.005053</v>
       </c>
       <c r="H13" s="1">
-        <v>916.238000</v>
+        <v>916.23800000000006</v>
       </c>
       <c r="I13" s="1">
-        <v>-167.521000</v>
+        <v>-167.52099999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>68428.397330</v>
+        <v>68428.397330000007</v>
       </c>
       <c r="L13" s="1">
-        <v>19.007888</v>
+        <v>19.007888000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>939.996000</v>
+        <v>939.99599999999998</v>
       </c>
       <c r="N13" s="1">
-        <v>-120.512000</v>
+        <v>-120.512</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>68438.639717</v>
+        <v>68438.639716999998</v>
       </c>
       <c r="Q13" s="1">
-        <v>19.010733</v>
+        <v>19.010732999999998</v>
       </c>
       <c r="R13" s="1">
-        <v>946.968000</v>
+        <v>946.96799999999996</v>
       </c>
       <c r="S13" s="1">
-        <v>-105.052000</v>
+        <v>-105.05200000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>68448.811174</v>
+        <v>68448.811174000002</v>
       </c>
       <c r="V13" s="1">
-        <v>19.013559</v>
+        <v>19.013559000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>953.780000</v>
+        <v>953.78</v>
       </c>
       <c r="X13" s="1">
-        <v>-91.004700</v>
+        <v>-91.0047</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>68458.678089</v>
+        <v>68458.678088999994</v>
       </c>
       <c r="AA13" s="1">
         <v>19.016299</v>
       </c>
       <c r="AB13" s="1">
-        <v>961.423000</v>
+        <v>961.423</v>
       </c>
       <c r="AC13" s="1">
-        <v>-81.110900</v>
+        <v>-81.110900000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>68468.940316</v>
+        <v>68468.940315999993</v>
       </c>
       <c r="AF13" s="1">
-        <v>19.019150</v>
+        <v>19.01915</v>
       </c>
       <c r="AG13" s="1">
-        <v>966.368000</v>
+        <v>966.36800000000005</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.315900</v>
+        <v>-80.315899999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>68479.453021</v>
+        <v>68479.453020999994</v>
       </c>
       <c r="AK13" s="1">
-        <v>19.022070</v>
+        <v>19.022069999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>974.428000</v>
+        <v>974.428</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.822900</v>
+        <v>-87.822900000000004</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>68490.143792</v>
+        <v>68490.143792000003</v>
       </c>
       <c r="AP13" s="1">
-        <v>19.025040</v>
+        <v>19.025040000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>983.594000</v>
+        <v>983.59400000000005</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.512000</v>
+        <v>-102.512</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>68501.191681</v>
+        <v>68501.191680999997</v>
       </c>
       <c r="AU13" s="1">
-        <v>19.028109</v>
+        <v>19.028109000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>995.001000</v>
+        <v>995.00099999999998</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.814000</v>
+        <v>-123.81399999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>68512.221256</v>
+        <v>68512.221256000004</v>
       </c>
       <c r="AZ13" s="1">
-        <v>19.031173</v>
+        <v>19.031172999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1004.680000</v>
+        <v>1004.68</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.376000</v>
+        <v>-142.376</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>68523.238852</v>
+        <v>68523.238851999995</v>
       </c>
       <c r="BE13" s="1">
         <v>19.034233</v>
       </c>
       <c r="BF13" s="1">
-        <v>1050.170000</v>
+        <v>1050.17</v>
       </c>
       <c r="BG13" s="1">
-        <v>-226.384000</v>
+        <v>-226.38399999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>68534.061589</v>
+        <v>68534.061589000004</v>
       </c>
       <c r="BJ13" s="1">
         <v>19.037239</v>
       </c>
       <c r="BK13" s="1">
-        <v>1129.890000</v>
+        <v>1129.8900000000001</v>
       </c>
       <c r="BL13" s="1">
-        <v>-360.497000</v>
+        <v>-360.49700000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>68545.376790</v>
+        <v>68545.376789999995</v>
       </c>
       <c r="BO13" s="1">
-        <v>19.040382</v>
+        <v>19.040382000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1261.160000</v>
+        <v>1261.1600000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-566.774000</v>
+        <v>-566.774</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>68556.181144</v>
+        <v>68556.181144000002</v>
       </c>
       <c r="BT13" s="1">
         <v>19.043384</v>
       </c>
       <c r="BU13" s="1">
-        <v>1407.980000</v>
+        <v>1407.98</v>
       </c>
       <c r="BV13" s="1">
-        <v>-786.018000</v>
+        <v>-786.01800000000003</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>68567.055963</v>
+        <v>68567.055963000006</v>
       </c>
       <c r="BY13" s="1">
-        <v>19.046404</v>
+        <v>19.046403999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1567.740000</v>
+        <v>1567.74</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1014.850000</v>
+        <v>-1014.85</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>68579.116187</v>
+        <v>68579.116187000007</v>
       </c>
       <c r="CD13" s="1">
         <v>19.049754</v>
       </c>
       <c r="CE13" s="1">
-        <v>1969.720000</v>
+        <v>1969.72</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1549.340000</v>
+        <v>-1549.34</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>68408.114960</v>
+        <v>68408.114960000006</v>
       </c>
       <c r="B14" s="1">
-        <v>19.002254</v>
+        <v>19.002254000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>898.845000</v>
+        <v>898.84500000000003</v>
       </c>
       <c r="D14" s="1">
-        <v>-196.978000</v>
+        <v>-196.97800000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>68418.536900</v>
+        <v>68418.536900000006</v>
       </c>
       <c r="G14" s="1">
-        <v>19.005149</v>
+        <v>19.005148999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>916.456000</v>
+        <v>916.45600000000002</v>
       </c>
       <c r="I14" s="1">
-        <v>-166.986000</v>
+        <v>-166.98599999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>68428.741552</v>
+        <v>68428.741552000007</v>
       </c>
       <c r="L14" s="1">
         <v>19.007984</v>
       </c>
       <c r="M14" s="1">
-        <v>940.006000</v>
+        <v>940.00599999999997</v>
       </c>
       <c r="N14" s="1">
-        <v>-120.457000</v>
+        <v>-120.45699999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>68438.987412</v>
+        <v>68438.987412000002</v>
       </c>
       <c r="Q14" s="1">
-        <v>19.010830</v>
+        <v>19.010829999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>946.985000</v>
+        <v>946.98500000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.987000</v>
+        <v>-104.98699999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>68449.154902</v>
+        <v>68449.154901999995</v>
       </c>
       <c r="V14" s="1">
-        <v>19.013654</v>
+        <v>19.013653999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>953.865000</v>
+        <v>953.86500000000001</v>
       </c>
       <c r="X14" s="1">
-        <v>-91.023000</v>
+        <v>-91.022999999999996</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>68459.108618</v>
+        <v>68459.108617999998</v>
       </c>
       <c r="AA14" s="1">
-        <v>19.016419</v>
+        <v>19.016418999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>961.229000</v>
+        <v>961.22900000000004</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.924400</v>
+        <v>-80.924400000000006</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>68469.211627</v>
+        <v>68469.211626999997</v>
       </c>
       <c r="AF14" s="1">
-        <v>19.019225</v>
+        <v>19.019224999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>966.501000</v>
+        <v>966.50099999999998</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.431300</v>
+        <v>-80.431299999999993</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>68479.731805</v>
+        <v>68479.731805000003</v>
       </c>
       <c r="AK14" s="1">
-        <v>19.022148</v>
+        <v>19.022148000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>974.400000</v>
+        <v>974.4</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.805300</v>
+        <v>-87.805300000000003</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>68490.503390</v>
+        <v>68490.503389999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>19.025140</v>
+        <v>19.02514</v>
       </c>
       <c r="AQ14" s="1">
-        <v>983.589000</v>
+        <v>983.58900000000006</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.478000</v>
+        <v>-102.47799999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>68501.552800</v>
+        <v>68501.552800000005</v>
       </c>
       <c r="AU14" s="1">
         <v>19.028209</v>
       </c>
       <c r="AV14" s="1">
-        <v>995.003000</v>
+        <v>995.00300000000004</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.808000</v>
+        <v>-123.80800000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>68512.580323</v>
+        <v>68512.580323000002</v>
       </c>
       <c r="AZ14" s="1">
-        <v>19.031272</v>
+        <v>19.031272000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1004.670000</v>
+        <v>1004.67</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.368000</v>
+        <v>-142.36799999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>68523.958062</v>
+        <v>68523.958062000005</v>
       </c>
       <c r="BE14" s="1">
         <v>19.034433</v>
       </c>
       <c r="BF14" s="1">
-        <v>1050.160000</v>
+        <v>1050.1600000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-226.393000</v>
+        <v>-226.393</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>68534.812038</v>
+        <v>68534.812038000004</v>
       </c>
       <c r="BJ14" s="1">
-        <v>19.037448</v>
+        <v>19.037448000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1129.890000</v>
+        <v>1129.8900000000001</v>
       </c>
       <c r="BL14" s="1">
-        <v>-360.528000</v>
+        <v>-360.52800000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>68545.773094</v>
+        <v>68545.773094000004</v>
       </c>
       <c r="BO14" s="1">
-        <v>19.040493</v>
+        <v>19.040493000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1261.160000</v>
+        <v>1261.1600000000001</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-566.734000</v>
+        <v>-566.73400000000004</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>68556.598317</v>
+        <v>68556.598316999996</v>
       </c>
       <c r="BT14" s="1">
-        <v>19.043500</v>
+        <v>19.043500000000002</v>
       </c>
       <c r="BU14" s="1">
-        <v>1408.000000</v>
+        <v>1408</v>
       </c>
       <c r="BV14" s="1">
-        <v>-786.024000</v>
+        <v>-786.024</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>68567.505337</v>
+        <v>68567.505336999995</v>
       </c>
       <c r="BY14" s="1">
         <v>19.046529</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1567.800000</v>
+        <v>1567.8</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1014.870000</v>
+        <v>-1014.87</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>68579.973274</v>
+        <v>68579.973274000004</v>
       </c>
       <c r="CD14" s="1">
-        <v>19.049993</v>
+        <v>19.049993000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1968.600000</v>
+        <v>1968.6</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1548.160000</v>
+        <v>-1548.16</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>68408.458652</v>
+        <v>68408.458652000001</v>
       </c>
       <c r="B15" s="1">
-        <v>19.002350</v>
+        <v>19.00235</v>
       </c>
       <c r="C15" s="1">
-        <v>898.771000</v>
+        <v>898.77099999999996</v>
       </c>
       <c r="D15" s="1">
-        <v>-196.934000</v>
+        <v>-196.934</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>68418.879103</v>
+        <v>68418.879102999999</v>
       </c>
       <c r="G15" s="1">
-        <v>19.005244</v>
+        <v>19.005244000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>916.172000</v>
+        <v>916.17200000000003</v>
       </c>
       <c r="I15" s="1">
-        <v>-167.502000</v>
+        <v>-167.50200000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>68429.086272</v>
       </c>
       <c r="L15" s="1">
-        <v>19.008080</v>
+        <v>19.00808</v>
       </c>
       <c r="M15" s="1">
-        <v>939.972000</v>
+        <v>939.97199999999998</v>
       </c>
       <c r="N15" s="1">
-        <v>-120.567000</v>
+        <v>-120.56699999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>68439.412022</v>
+        <v>68439.412022000004</v>
       </c>
       <c r="Q15" s="1">
-        <v>19.010948</v>
+        <v>19.010947999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>947.013000</v>
+        <v>947.01300000000003</v>
       </c>
       <c r="S15" s="1">
-        <v>-105.030000</v>
+        <v>-105.03</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>68449.570550</v>
+        <v>68449.570550000004</v>
       </c>
       <c r="V15" s="1">
-        <v>19.013770</v>
+        <v>19.013770000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>953.852000</v>
+        <v>953.85199999999998</v>
       </c>
       <c r="X15" s="1">
-        <v>-91.023600</v>
+        <v>-91.023600000000002</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>68459.388361</v>
+        <v>68459.388361000005</v>
       </c>
       <c r="AA15" s="1">
-        <v>19.016497</v>
+        <v>19.016497000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>961.344000</v>
+        <v>961.34400000000005</v>
       </c>
       <c r="AC15" s="1">
-        <v>-81.087700</v>
+        <v>-81.087699999999998</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>68469.555883</v>
+        <v>68469.555882999994</v>
       </c>
       <c r="AF15" s="1">
-        <v>19.019321</v>
+        <v>19.019321000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>966.482000</v>
+        <v>966.48199999999997</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.363400</v>
+        <v>-80.363399999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>68480.080960</v>
+        <v>68480.080960000007</v>
       </c>
       <c r="AK15" s="1">
-        <v>19.022245</v>
+        <v>19.022245000000002</v>
       </c>
       <c r="AL15" s="1">
-        <v>974.407000</v>
+        <v>974.40700000000004</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.807700</v>
+        <v>-87.807699999999997</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>68490.864017</v>
       </c>
       <c r="AP15" s="1">
-        <v>19.025240</v>
+        <v>19.02524</v>
       </c>
       <c r="AQ15" s="1">
-        <v>983.605000</v>
+        <v>983.60500000000002</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.482000</v>
+        <v>-102.482</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>68501.920303</v>
+        <v>68501.920303000006</v>
       </c>
       <c r="AU15" s="1">
-        <v>19.028311</v>
+        <v>19.028310999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>994.998000</v>
+        <v>994.99800000000005</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.796000</v>
+        <v>-123.79600000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>68513.301505</v>
+        <v>68513.301504999996</v>
       </c>
       <c r="AZ15" s="1">
-        <v>19.031473</v>
+        <v>19.031472999999998</v>
       </c>
       <c r="BA15" s="1">
-        <v>1004.650000</v>
+        <v>1004.65</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.393000</v>
+        <v>-142.393</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>68524.318146</v>
+        <v>68524.318146000005</v>
       </c>
       <c r="BE15" s="1">
         <v>19.034533</v>
       </c>
       <c r="BF15" s="1">
-        <v>1050.150000</v>
+        <v>1050.1500000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-226.393000</v>
+        <v>-226.393</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>68535.190980</v>
+        <v>68535.190979999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>19.037553</v>
+        <v>19.037552999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1129.920000</v>
+        <v>1129.92</v>
       </c>
       <c r="BL15" s="1">
-        <v>-360.522000</v>
+        <v>-360.52199999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>68546.190725</v>
+        <v>68546.190724999993</v>
       </c>
       <c r="BO15" s="1">
         <v>19.040609</v>
       </c>
       <c r="BP15" s="1">
-        <v>1261.110000</v>
+        <v>1261.1099999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-566.739000</v>
+        <v>-566.73900000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>68557.320456</v>
+        <v>68557.320456000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>19.043700</v>
+        <v>19.043700000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1408.010000</v>
+        <v>1408.01</v>
       </c>
       <c r="BV15" s="1">
-        <v>-786.133000</v>
+        <v>-786.13300000000004</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>68568.242395</v>
+        <v>68568.242394999994</v>
       </c>
       <c r="BY15" s="1">
-        <v>19.046734</v>
+        <v>19.046734000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1567.900000</v>
+        <v>1567.9</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1014.770000</v>
+        <v>-1014.77</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>68580.195448</v>
+        <v>68580.195447999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>19.050054</v>
+        <v>19.050053999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1968.460000</v>
+        <v>1968.46</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1548.120000</v>
+        <v>-1548.12</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>68408.801883</v>
+        <v>68408.801882999993</v>
       </c>
       <c r="B16" s="1">
-        <v>19.002445</v>
+        <v>19.002445000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>898.941000</v>
+        <v>898.94100000000003</v>
       </c>
       <c r="D16" s="1">
-        <v>-196.838000</v>
+        <v>-196.83799999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>68419.292798</v>
+        <v>68419.292797999995</v>
       </c>
       <c r="G16" s="1">
-        <v>19.005359</v>
+        <v>19.005358999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>916.330000</v>
+        <v>916.33</v>
       </c>
       <c r="I16" s="1">
-        <v>-167.356000</v>
+        <v>-167.35599999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>68429.519775</v>
+        <v>68429.519774999993</v>
       </c>
       <c r="L16" s="1">
-        <v>19.008200</v>
+        <v>19.008199999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>940.085000</v>
+        <v>940.08500000000004</v>
       </c>
       <c r="N16" s="1">
-        <v>-120.479000</v>
+        <v>-120.479</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>68439.691758</v>
+        <v>68439.691758000001</v>
       </c>
       <c r="Q16" s="1">
         <v>19.011025</v>
       </c>
       <c r="R16" s="1">
-        <v>946.999000</v>
+        <v>946.99900000000002</v>
       </c>
       <c r="S16" s="1">
-        <v>-105.016000</v>
+        <v>-105.01600000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>68449.855748</v>
+        <v>68449.855748000002</v>
       </c>
       <c r="V16" s="1">
         <v>19.013849</v>
       </c>
       <c r="W16" s="1">
-        <v>953.877000</v>
+        <v>953.87699999999995</v>
       </c>
       <c r="X16" s="1">
-        <v>-91.074200</v>
+        <v>-91.074200000000005</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>68459.738537</v>
+        <v>68459.738536999997</v>
       </c>
       <c r="AA16" s="1">
-        <v>19.016594</v>
+        <v>19.016594000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>961.315000</v>
+        <v>961.31500000000005</v>
       </c>
       <c r="AC16" s="1">
-        <v>-81.095600</v>
+        <v>-81.095600000000005</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>68469.899114</v>
@@ -4169,1979 +4585,1979 @@
         <v>19.019416</v>
       </c>
       <c r="AG16" s="1">
-        <v>966.387000</v>
+        <v>966.38699999999994</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.377800</v>
+        <v>-80.377799999999993</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>68480.430141</v>
+        <v>68480.430141000004</v>
       </c>
       <c r="AK16" s="1">
-        <v>19.022342</v>
+        <v>19.022341999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>974.415000</v>
+        <v>974.41499999999996</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.815300</v>
+        <v>-87.815299999999993</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>68491.589133</v>
+        <v>68491.589133000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>19.025441</v>
+        <v>19.025441000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>983.597000</v>
+        <v>983.59699999999998</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.491000</v>
+        <v>-102.491</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>68502.649423</v>
+        <v>68502.649422999995</v>
       </c>
       <c r="AU16" s="1">
-        <v>19.028514</v>
+        <v>19.028514000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>995.007000</v>
+        <v>995.00699999999995</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.784000</v>
+        <v>-123.78400000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>68513.676016</v>
+        <v>68513.676015999998</v>
       </c>
       <c r="AZ16" s="1">
-        <v>19.031577</v>
+        <v>19.031576999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1004.650000</v>
+        <v>1004.65</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.401000</v>
+        <v>-142.40100000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>68524.681715</v>
+        <v>68524.681714999999</v>
       </c>
       <c r="BE16" s="1">
         <v>19.034634</v>
       </c>
       <c r="BF16" s="1">
-        <v>1050.160000</v>
+        <v>1050.1600000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-226.402000</v>
+        <v>-226.40199999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>68535.565429</v>
+        <v>68535.565428999995</v>
       </c>
       <c r="BJ16" s="1">
-        <v>19.037657</v>
+        <v>19.037656999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1129.890000</v>
+        <v>1129.8900000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-360.503000</v>
+        <v>-360.50299999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>68546.894548</v>
+        <v>68546.894547999997</v>
       </c>
       <c r="BO16" s="1">
-        <v>19.040804</v>
+        <v>19.040804000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1261.150000</v>
+        <v>1261.1500000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-566.741000</v>
+        <v>-566.74099999999999</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>68557.429086</v>
+        <v>68557.429086000004</v>
       </c>
       <c r="BT16" s="1">
-        <v>19.043730</v>
+        <v>19.04373</v>
       </c>
       <c r="BU16" s="1">
-        <v>1408.030000</v>
+        <v>1408.03</v>
       </c>
       <c r="BV16" s="1">
-        <v>-786.070000</v>
+        <v>-786.07</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>68568.368344</v>
+        <v>68568.368344000002</v>
       </c>
       <c r="BY16" s="1">
-        <v>19.046769</v>
+        <v>19.046769000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1567.690000</v>
+        <v>1567.69</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1014.840000</v>
+        <v>-1014.84</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>68580.716743</v>
+        <v>68580.716742999997</v>
       </c>
       <c r="CD16" s="1">
-        <v>19.050199</v>
+        <v>19.050198999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1969.350000</v>
+        <v>1969.35</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1549.600000</v>
+        <v>-1549.6</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>68409.227451</v>
+        <v>68409.227450999999</v>
       </c>
       <c r="B17" s="1">
-        <v>19.002563</v>
+        <v>19.002562999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>898.904000</v>
+        <v>898.904</v>
       </c>
       <c r="D17" s="1">
-        <v>-196.836000</v>
+        <v>-196.83600000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>68419.586894</v>
+        <v>68419.586893999993</v>
       </c>
       <c r="G17" s="1">
-        <v>19.005441</v>
+        <v>19.005441000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>916.402000</v>
+        <v>916.40200000000004</v>
       </c>
       <c r="I17" s="1">
-        <v>-167.592000</v>
+        <v>-167.59200000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>68429.797039</v>
+        <v>68429.797038999997</v>
       </c>
       <c r="L17" s="1">
         <v>19.008277</v>
       </c>
       <c r="M17" s="1">
-        <v>940.135000</v>
+        <v>940.13499999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-120.479000</v>
+        <v>-120.479</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>68440.040450</v>
+        <v>68440.04045</v>
       </c>
       <c r="Q17" s="1">
         <v>19.011122</v>
       </c>
       <c r="R17" s="1">
-        <v>946.983000</v>
+        <v>946.98299999999995</v>
       </c>
       <c r="S17" s="1">
-        <v>-105.030000</v>
+        <v>-105.03</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>68450.218324</v>
+        <v>68450.218324000001</v>
       </c>
       <c r="V17" s="1">
-        <v>19.013950</v>
+        <v>19.013950000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>953.793000</v>
+        <v>953.79300000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.995900</v>
+        <v>-90.995900000000006</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>68460.086231</v>
+        <v>68460.086230999994</v>
       </c>
       <c r="AA17" s="1">
-        <v>19.016691</v>
+        <v>19.016691000000002</v>
       </c>
       <c r="AB17" s="1">
-        <v>961.407000</v>
+        <v>961.40700000000004</v>
       </c>
       <c r="AC17" s="1">
-        <v>-81.084800</v>
+        <v>-81.084800000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>68470.585086</v>
+        <v>68470.585086000006</v>
       </c>
       <c r="AF17" s="1">
-        <v>19.019607</v>
+        <v>19.019607000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>966.504000</v>
+        <v>966.50400000000002</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.337200</v>
+        <v>-80.337199999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>68481.126524</v>
+        <v>68481.126524000007</v>
       </c>
       <c r="AK17" s="1">
-        <v>19.022535</v>
+        <v>19.022535000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>974.398000</v>
+        <v>974.39800000000002</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.801100</v>
+        <v>-87.801100000000005</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>68491.968574</v>
+        <v>68491.968573999999</v>
       </c>
       <c r="AP17" s="1">
         <v>19.025547</v>
       </c>
       <c r="AQ17" s="1">
-        <v>983.602000</v>
+        <v>983.60199999999998</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.490000</v>
+        <v>-102.49</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>68503.014478</v>
+        <v>68503.014477999997</v>
       </c>
       <c r="AU17" s="1">
-        <v>19.028615</v>
+        <v>19.028614999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>995.000000</v>
+        <v>995</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.800000</v>
+        <v>-123.8</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>68514.053441</v>
+        <v>68514.053440999996</v>
       </c>
       <c r="AZ17" s="1">
         <v>19.031682</v>
       </c>
       <c r="BA17" s="1">
-        <v>1004.680000</v>
+        <v>1004.68</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.383000</v>
+        <v>-142.38300000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>68525.351313</v>
+        <v>68525.351313000006</v>
       </c>
       <c r="BE17" s="1">
-        <v>19.034820</v>
+        <v>19.03482</v>
       </c>
       <c r="BF17" s="1">
-        <v>1050.150000</v>
+        <v>1050.1500000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-226.397000</v>
+        <v>-226.39699999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>68536.241474</v>
+        <v>68536.241473999995</v>
       </c>
       <c r="BJ17" s="1">
-        <v>19.037845</v>
+        <v>19.037845000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1129.900000</v>
+        <v>1129.9000000000001</v>
       </c>
       <c r="BL17" s="1">
-        <v>-360.518000</v>
+        <v>-360.51799999999997</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>68547.027973</v>
+        <v>68547.027973000004</v>
       </c>
       <c r="BO17" s="1">
         <v>19.040841</v>
       </c>
       <c r="BP17" s="1">
-        <v>1261.180000</v>
+        <v>1261.18</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-566.720000</v>
+        <v>-566.72</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>68557.866054</v>
+        <v>68557.866053999998</v>
       </c>
       <c r="BT17" s="1">
-        <v>19.043852</v>
+        <v>19.043852000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1408.050000</v>
+        <v>1408.05</v>
       </c>
       <c r="BV17" s="1">
-        <v>-786.158000</v>
+        <v>-786.15800000000002</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>68568.794407</v>
+        <v>68568.794406999994</v>
       </c>
       <c r="BY17" s="1">
-        <v>19.046887</v>
+        <v>19.046887000000002</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1567.780000</v>
+        <v>1567.78</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1014.750000</v>
+        <v>-1014.75</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>68581.236584</v>
+        <v>68581.236583999998</v>
       </c>
       <c r="CD17" s="1">
-        <v>19.050343</v>
+        <v>19.050343000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>1968.430000</v>
+        <v>1968.43</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1548.880000</v>
+        <v>-1548.88</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>68409.500250</v>
+        <v>68409.500249999997</v>
       </c>
       <c r="B18" s="1">
-        <v>19.002639</v>
+        <v>19.002638999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>898.715000</v>
+        <v>898.71500000000003</v>
       </c>
       <c r="D18" s="1">
-        <v>-196.918000</v>
+        <v>-196.91800000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>68419.935085</v>
+        <v>68419.935085000005</v>
       </c>
       <c r="G18" s="1">
-        <v>19.005538</v>
+        <v>19.005538000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>916.525000</v>
+        <v>916.52499999999998</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.412000</v>
+        <v>-167.41200000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>68430.148703</v>
+        <v>68430.148702999999</v>
       </c>
       <c r="L18" s="1">
-        <v>19.008375</v>
+        <v>19.008375000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>940.155000</v>
+        <v>940.15499999999997</v>
       </c>
       <c r="N18" s="1">
-        <v>-120.412000</v>
+        <v>-120.41200000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>68440.389601</v>
+        <v>68440.389601000003</v>
       </c>
       <c r="Q18" s="1">
-        <v>19.011219</v>
+        <v>19.011219000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>946.981000</v>
+        <v>946.98099999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-105.015000</v>
+        <v>-105.015</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>68450.668196</v>
+        <v>68450.668195999999</v>
       </c>
       <c r="V18" s="1">
-        <v>19.014074</v>
+        <v>19.014074000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>953.776000</v>
+        <v>953.77599999999995</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.950300</v>
+        <v>-90.950299999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>68460.784134</v>
+        <v>68460.784134000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>19.016884</v>
+        <v>19.016884000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>961.392000</v>
+        <v>961.39200000000005</v>
       </c>
       <c r="AC18" s="1">
-        <v>-81.093200</v>
+        <v>-81.093199999999996</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>68470.929774</v>
+        <v>68470.929774000004</v>
       </c>
       <c r="AF18" s="1">
         <v>19.019703</v>
       </c>
       <c r="AG18" s="1">
-        <v>966.175000</v>
+        <v>966.17499999999995</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.432600</v>
+        <v>-80.432599999999994</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>68481.477196</v>
+        <v>68481.477196000007</v>
       </c>
       <c r="AK18" s="1">
-        <v>19.022633</v>
+        <v>19.022632999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>974.401000</v>
+        <v>974.40099999999995</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.839500</v>
+        <v>-87.839500000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>68492.327718</v>
       </c>
       <c r="AP18" s="1">
-        <v>19.025647</v>
+        <v>19.025646999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>983.607000</v>
+        <v>983.60699999999997</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.495000</v>
+        <v>-102.495</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>68503.688541</v>
+        <v>68503.688540999996</v>
       </c>
       <c r="AU18" s="1">
-        <v>19.028802</v>
+        <v>19.028801999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>995.009000</v>
+        <v>995.00900000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.802000</v>
+        <v>-123.80200000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>68514.727008</v>
+        <v>68514.727008000002</v>
       </c>
       <c r="AZ18" s="1">
         <v>19.031869</v>
       </c>
       <c r="BA18" s="1">
-        <v>1004.670000</v>
+        <v>1004.67</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.405000</v>
+        <v>-142.405</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>68525.798240</v>
+        <v>68525.798240000004</v>
       </c>
       <c r="BE18" s="1">
-        <v>19.034944</v>
+        <v>19.034943999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1050.150000</v>
+        <v>1050.1500000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-226.401000</v>
+        <v>-226.40100000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>68536.352094</v>
+        <v>68536.352094000002</v>
       </c>
       <c r="BJ18" s="1">
-        <v>19.037876</v>
+        <v>19.037876000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1129.910000</v>
+        <v>1129.9100000000001</v>
       </c>
       <c r="BL18" s="1">
-        <v>-360.524000</v>
+        <v>-360.524</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>68547.437667</v>
+        <v>68547.437667000006</v>
       </c>
       <c r="BO18" s="1">
         <v>19.040955</v>
       </c>
       <c r="BP18" s="1">
-        <v>1261.170000</v>
+        <v>1261.17</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-566.738000</v>
+        <v>-566.73800000000006</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>68558.279222</v>
+        <v>68558.279221999997</v>
       </c>
       <c r="BT18" s="1">
-        <v>19.043966</v>
+        <v>19.043966000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1408.000000</v>
+        <v>1408</v>
       </c>
       <c r="BV18" s="1">
-        <v>-786.162000</v>
+        <v>-786.16200000000003</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>68569.210056</v>
+        <v>68569.210055999996</v>
       </c>
       <c r="BY18" s="1">
         <v>19.047003</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1567.790000</v>
+        <v>1567.79</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1014.830000</v>
+        <v>-1014.83</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>68581.786629</v>
+        <v>68581.786628999995</v>
       </c>
       <c r="CD18" s="1">
-        <v>19.050496</v>
+        <v>19.050495999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1968.500000</v>
+        <v>1968.5</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1548.150000</v>
+        <v>-1548.15</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>68409.842036</v>
+        <v>68409.842036000002</v>
       </c>
       <c r="B19" s="1">
         <v>19.002734</v>
       </c>
       <c r="C19" s="1">
-        <v>898.810000</v>
+        <v>898.81</v>
       </c>
       <c r="D19" s="1">
-        <v>-197.082000</v>
+        <v>-197.08199999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>68420.277852</v>
+        <v>68420.277851999999</v>
       </c>
       <c r="G19" s="1">
         <v>19.005633</v>
       </c>
       <c r="H19" s="1">
-        <v>916.977000</v>
+        <v>916.97699999999998</v>
       </c>
       <c r="I19" s="1">
-        <v>-167.513000</v>
+        <v>-167.51300000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>68430.488995</v>
+        <v>68430.488995000007</v>
       </c>
       <c r="L19" s="1">
-        <v>19.008469</v>
+        <v>19.008469000000002</v>
       </c>
       <c r="M19" s="1">
-        <v>940.051000</v>
+        <v>940.05100000000004</v>
       </c>
       <c r="N19" s="1">
-        <v>-120.352000</v>
+        <v>-120.352</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>68441.086480</v>
+        <v>68441.086479999998</v>
       </c>
       <c r="Q19" s="1">
-        <v>19.011413</v>
+        <v>19.011413000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>946.990000</v>
+        <v>946.99</v>
       </c>
       <c r="S19" s="1">
-        <v>-105.004000</v>
+        <v>-105.004</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>68450.919667</v>
+        <v>68450.919666999995</v>
       </c>
       <c r="V19" s="1">
-        <v>19.014144</v>
+        <v>19.014144000000002</v>
       </c>
       <c r="W19" s="1">
-        <v>953.889000</v>
+        <v>953.88900000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.978700</v>
+        <v>-90.978700000000003</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>68461.131829</v>
+        <v>68461.131829000005</v>
       </c>
       <c r="AA19" s="1">
-        <v>19.016981</v>
+        <v>19.016981000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>961.309000</v>
+        <v>961.30899999999997</v>
       </c>
       <c r="AC19" s="1">
-        <v>-81.084300</v>
+        <v>-81.084299999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>68471.272537</v>
+        <v>68471.272536999997</v>
       </c>
       <c r="AF19" s="1">
-        <v>19.019798</v>
+        <v>19.019798000000002</v>
       </c>
       <c r="AG19" s="1">
-        <v>966.388000</v>
+        <v>966.38800000000003</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.348800</v>
+        <v>-80.348799999999997</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>68481.820922</v>
+        <v>68481.820921999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>19.022728</v>
+        <v>19.022728000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>974.404000</v>
+        <v>974.404</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.819000</v>
+        <v>-87.819000000000003</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>68492.999757</v>
+        <v>68492.999756999998</v>
       </c>
       <c r="AP19" s="1">
-        <v>19.025833</v>
+        <v>19.025832999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>983.610000</v>
+        <v>983.61</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.490000</v>
+        <v>-102.49</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>68504.108653</v>
+        <v>68504.108653000003</v>
       </c>
       <c r="AU19" s="1">
-        <v>19.028919</v>
+        <v>19.028918999999998</v>
       </c>
       <c r="AV19" s="1">
-        <v>995.006000</v>
+        <v>995.00599999999997</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.807000</v>
+        <v>-123.807</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>68515.139224</v>
+        <v>68515.139223999999</v>
       </c>
       <c r="AZ19" s="1">
         <v>19.031983</v>
       </c>
       <c r="BA19" s="1">
-        <v>1004.680000</v>
+        <v>1004.68</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.384000</v>
+        <v>-142.38399999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>68526.158305</v>
+        <v>68526.158305000004</v>
       </c>
       <c r="BE19" s="1">
-        <v>19.035044</v>
+        <v>19.035043999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1050.150000</v>
+        <v>1050.1500000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-226.385000</v>
+        <v>-226.38499999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>68536.748425</v>
+        <v>68536.748424999998</v>
       </c>
       <c r="BJ19" s="1">
         <v>19.037986</v>
       </c>
       <c r="BK19" s="1">
-        <v>1129.890000</v>
+        <v>1129.8900000000001</v>
       </c>
       <c r="BL19" s="1">
-        <v>-360.500000</v>
+        <v>-360.5</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>68547.832979</v>
+        <v>68547.832978999999</v>
       </c>
       <c r="BO19" s="1">
         <v>19.041065</v>
       </c>
       <c r="BP19" s="1">
-        <v>1261.110000</v>
+        <v>1261.1099999999999</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-566.711000</v>
+        <v>-566.71100000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>68558.695860</v>
+        <v>68558.695860000007</v>
       </c>
       <c r="BT19" s="1">
         <v>19.044082</v>
       </c>
       <c r="BU19" s="1">
-        <v>1408.110000</v>
+        <v>1408.11</v>
       </c>
       <c r="BV19" s="1">
-        <v>-786.251000</v>
+        <v>-786.25099999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>68569.664423</v>
+        <v>68569.664422999995</v>
       </c>
       <c r="BY19" s="1">
-        <v>19.047129</v>
+        <v>19.047129000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1567.790000</v>
+        <v>1567.79</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1014.840000</v>
+        <v>-1014.84</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>68582.314856</v>
+        <v>68582.314855999997</v>
       </c>
       <c r="CD19" s="1">
-        <v>19.050643</v>
+        <v>19.050643000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1969.300000</v>
+        <v>1969.3</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1549.290000</v>
+        <v>-1549.29</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>68410.179273</v>
+        <v>68410.179273000002</v>
       </c>
       <c r="B20" s="1">
-        <v>19.002828</v>
+        <v>19.002828000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>898.829000</v>
+        <v>898.82899999999995</v>
       </c>
       <c r="D20" s="1">
-        <v>-197.009000</v>
+        <v>-197.00899999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>68420.968250</v>
+        <v>68420.968250000005</v>
       </c>
       <c r="G20" s="1">
-        <v>19.005825</v>
+        <v>19.005825000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>916.723000</v>
+        <v>916.72299999999996</v>
       </c>
       <c r="I20" s="1">
-        <v>-167.570000</v>
+        <v>-167.57</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>68431.185844</v>
+        <v>68431.185844000007</v>
       </c>
       <c r="L20" s="1">
-        <v>19.008663</v>
+        <v>19.008662999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>940.055000</v>
+        <v>940.05499999999995</v>
       </c>
       <c r="N20" s="1">
-        <v>-120.359000</v>
+        <v>-120.35899999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>68441.434207</v>
+        <v>68441.434206999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>19.011510</v>
+        <v>19.011510000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>946.981000</v>
+        <v>946.98099999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.985000</v>
+        <v>-104.985</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>68451.258932</v>
+        <v>68451.258931999997</v>
       </c>
       <c r="V20" s="1">
         <v>19.014239</v>
       </c>
       <c r="W20" s="1">
-        <v>953.874000</v>
+        <v>953.87400000000002</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.980800</v>
+        <v>-90.980800000000002</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>68461.481478</v>
+        <v>68461.481478000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>19.017078</v>
+        <v>19.017078000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>961.353000</v>
+        <v>961.35299999999995</v>
       </c>
       <c r="AC20" s="1">
-        <v>-81.089100</v>
+        <v>-81.089100000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>68471.926231</v>
+        <v>68471.926231000005</v>
       </c>
       <c r="AF20" s="1">
-        <v>19.019980</v>
+        <v>19.01998</v>
       </c>
       <c r="AG20" s="1">
-        <v>966.409000</v>
+        <v>966.40899999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.352500</v>
+        <v>-80.352500000000006</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>68482.484571</v>
+        <v>68482.484570999994</v>
       </c>
       <c r="AK20" s="1">
-        <v>19.022912</v>
+        <v>19.022912000000002</v>
       </c>
       <c r="AL20" s="1">
-        <v>974.398000</v>
+        <v>974.39800000000002</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.817200</v>
+        <v>-87.8172</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>68493.407007</v>
+        <v>68493.407007000002</v>
       </c>
       <c r="AP20" s="1">
-        <v>19.025946</v>
+        <v>19.025946000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>983.605000</v>
+        <v>983.60500000000002</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.483000</v>
+        <v>-102.483</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>68504.473745</v>
+        <v>68504.473744999996</v>
       </c>
       <c r="AU20" s="1">
-        <v>19.029020</v>
+        <v>19.029019999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>995.006000</v>
+        <v>995.00599999999997</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.800000</v>
+        <v>-123.8</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>68515.514191</v>
+        <v>68515.514190999995</v>
       </c>
       <c r="AZ20" s="1">
-        <v>19.032087</v>
+        <v>19.032087000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1004.670000</v>
+        <v>1004.67</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.390000</v>
+        <v>-142.38999999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>68526.518895</v>
+        <v>68526.518895000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>19.035144</v>
+        <v>19.035143999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1050.170000</v>
+        <v>1050.17</v>
       </c>
       <c r="BG20" s="1">
-        <v>-226.393000</v>
+        <v>-226.393</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>68537.097570</v>
+        <v>68537.097569999998</v>
       </c>
       <c r="BJ20" s="1">
         <v>19.038083</v>
       </c>
       <c r="BK20" s="1">
-        <v>1129.910000</v>
+        <v>1129.9100000000001</v>
       </c>
       <c r="BL20" s="1">
-        <v>-360.510000</v>
+        <v>-360.51</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>68548.253092</v>
+        <v>68548.253091999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>19.041181</v>
+        <v>19.041181000000002</v>
       </c>
       <c r="BP20" s="1">
-        <v>1261.110000</v>
+        <v>1261.1099999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-566.730000</v>
+        <v>-566.73</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>68559.132837</v>
+        <v>68559.132836999997</v>
       </c>
       <c r="BT20" s="1">
-        <v>19.044204</v>
+        <v>19.044204000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1408.060000</v>
+        <v>1408.06</v>
       </c>
       <c r="BV20" s="1">
-        <v>-786.245000</v>
+        <v>-786.245</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>68570.113765</v>
+        <v>68570.113765000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>19.047254</v>
+        <v>19.047253999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1567.790000</v>
+        <v>1567.79</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1014.770000</v>
+        <v>-1014.77</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>68582.833174</v>
+        <v>68582.833173999999</v>
       </c>
       <c r="CD20" s="1">
         <v>19.050787</v>
       </c>
       <c r="CE20" s="1">
-        <v>1969.900000</v>
+        <v>1969.9</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1547.760000</v>
+        <v>-1547.76</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>68410.866232</v>
       </c>
       <c r="B21" s="1">
-        <v>19.003018</v>
+        <v>19.003018000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>898.761000</v>
+        <v>898.76099999999997</v>
       </c>
       <c r="D21" s="1">
-        <v>-196.927000</v>
+        <v>-196.92699999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>68421.313995</v>
+        <v>68421.313995000004</v>
       </c>
       <c r="G21" s="1">
-        <v>19.005921</v>
+        <v>19.005921000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>916.919000</v>
+        <v>916.91899999999998</v>
       </c>
       <c r="I21" s="1">
-        <v>-166.821000</v>
+        <v>-166.821</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>68431.535517</v>
+        <v>68431.535516999997</v>
       </c>
       <c r="L21" s="1">
-        <v>19.008760</v>
+        <v>19.008759999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>940.009000</v>
+        <v>940.00900000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-120.542000</v>
+        <v>-120.542</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>68441.784352</v>
+        <v>68441.784352000002</v>
       </c>
       <c r="Q21" s="1">
-        <v>19.011607</v>
+        <v>19.011607000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>947.006000</v>
+        <v>947.00599999999997</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.983000</v>
+        <v>-104.983</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>68451.913981</v>
+        <v>68451.913981000005</v>
       </c>
       <c r="V21" s="1">
-        <v>19.014421</v>
+        <v>19.014420999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>953.754000</v>
+        <v>953.75400000000002</v>
       </c>
       <c r="X21" s="1">
-        <v>-91.105300</v>
+        <v>-91.1053</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>68462.131732</v>
+        <v>68462.131731999994</v>
       </c>
       <c r="AA21" s="1">
-        <v>19.017259</v>
+        <v>19.017258999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>961.404000</v>
+        <v>961.404</v>
       </c>
       <c r="AC21" s="1">
-        <v>-81.173300</v>
+        <v>-81.173299999999998</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>68472.303719</v>
+        <v>68472.303719000003</v>
       </c>
       <c r="AF21" s="1">
-        <v>19.020084</v>
+        <v>19.020084000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>966.312000</v>
+        <v>966.31200000000001</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.454300</v>
+        <v>-80.454300000000003</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>68482.870985</v>
+        <v>68482.870985000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>19.023020</v>
+        <v>19.023019999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>974.396000</v>
+        <v>974.39599999999996</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.815800</v>
+        <v>-87.815799999999996</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>68493.788405</v>
+        <v>68493.788404999999</v>
       </c>
       <c r="AP21" s="1">
         <v>19.026052</v>
       </c>
       <c r="AQ21" s="1">
-        <v>983.609000</v>
+        <v>983.60900000000004</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.493000</v>
+        <v>-102.49299999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>68504.836284</v>
+        <v>68504.836284000005</v>
       </c>
       <c r="AU21" s="1">
         <v>19.029121</v>
       </c>
       <c r="AV21" s="1">
-        <v>995.008000</v>
+        <v>995.00800000000004</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.792000</v>
+        <v>-123.792</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>68515.904045</v>
+        <v>68515.904045000003</v>
       </c>
       <c r="AZ21" s="1">
-        <v>19.032196</v>
+        <v>19.032195999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1004.660000</v>
+        <v>1004.66</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.383000</v>
+        <v>-142.38300000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>68526.943472</v>
+        <v>68526.943471999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>19.035262</v>
+        <v>19.035261999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1050.160000</v>
+        <v>1050.1600000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-226.395000</v>
+        <v>-226.39500000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>68537.847031</v>
+        <v>68537.847030999998</v>
       </c>
       <c r="BJ21" s="1">
-        <v>19.038291</v>
+        <v>19.038291000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1129.890000</v>
+        <v>1129.8900000000001</v>
       </c>
       <c r="BL21" s="1">
-        <v>-360.510000</v>
+        <v>-360.51</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>68548.648899</v>
+        <v>68548.648899000007</v>
       </c>
       <c r="BO21" s="1">
-        <v>19.041291</v>
+        <v>19.041291000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1261.160000</v>
+        <v>1261.1600000000001</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-566.742000</v>
+        <v>-566.74199999999996</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>68559.561875</v>
+        <v>68559.561874999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>19.044323</v>
+        <v>19.044322999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1408.090000</v>
+        <v>1408.09</v>
       </c>
       <c r="BV21" s="1">
-        <v>-786.292000</v>
+        <v>-786.29200000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>68570.535861</v>
+        <v>68570.535860999997</v>
       </c>
       <c r="BY21" s="1">
-        <v>19.047371</v>
+        <v>19.047370999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1567.840000</v>
+        <v>1567.84</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1014.790000</v>
+        <v>-1014.79</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>68583.374841</v>
+        <v>68583.374840999997</v>
       </c>
       <c r="CD21" s="1">
-        <v>19.050937</v>
+        <v>19.050937000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1968.380000</v>
+        <v>1968.38</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1548.350000</v>
+        <v>-1548.35</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>68411.208969</v>
+        <v>68411.208968999999</v>
       </c>
       <c r="B22" s="1">
         <v>19.003114</v>
       </c>
       <c r="C22" s="1">
-        <v>898.911000</v>
+        <v>898.91099999999994</v>
       </c>
       <c r="D22" s="1">
-        <v>-196.761000</v>
+        <v>-196.761</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>68421.663146</v>
+        <v>68421.663146000006</v>
       </c>
       <c r="G22" s="1">
-        <v>19.006018</v>
+        <v>19.006018000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>916.317000</v>
+        <v>916.31700000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-167.158000</v>
+        <v>-167.15799999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>68431.877758</v>
+        <v>68431.877758000002</v>
       </c>
       <c r="L22" s="1">
-        <v>19.008855</v>
+        <v>19.008855000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>940.105000</v>
+        <v>940.10500000000002</v>
       </c>
       <c r="N22" s="1">
-        <v>-120.493000</v>
+        <v>-120.49299999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>68442.441552</v>
+        <v>68442.441552000004</v>
       </c>
       <c r="Q22" s="1">
         <v>19.011789</v>
       </c>
       <c r="R22" s="1">
-        <v>947.022000</v>
+        <v>947.02200000000005</v>
       </c>
       <c r="S22" s="1">
-        <v>-105.050000</v>
+        <v>-105.05</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>68452.290146</v>
+        <v>68452.290145999999</v>
       </c>
       <c r="V22" s="1">
-        <v>19.014525</v>
+        <v>19.014524999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>953.658000</v>
+        <v>953.65800000000002</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.993100</v>
+        <v>-90.993099999999998</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>68462.523579</v>
+        <v>68462.523579000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>19.017368</v>
+        <v>19.017368000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>961.312000</v>
+        <v>961.31200000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-81.125000</v>
+        <v>-81.125</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>68472.648407</v>
+        <v>68472.648407000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>19.020180</v>
+        <v>19.02018</v>
       </c>
       <c r="AG22" s="1">
-        <v>966.444000</v>
+        <v>966.44399999999996</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.346400</v>
+        <v>-80.346400000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>68483.221624</v>
+        <v>68483.221623999998</v>
       </c>
       <c r="AK22" s="1">
-        <v>19.023117</v>
+        <v>19.023116999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>974.384000</v>
+        <v>974.38400000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.836300</v>
+        <v>-87.836299999999994</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>68494.149004</v>
+        <v>68494.149004000006</v>
       </c>
       <c r="AP22" s="1">
-        <v>19.026153</v>
+        <v>19.026153000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>983.617000</v>
+        <v>983.61699999999996</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.479000</v>
+        <v>-102.479</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>68505.258380</v>
+        <v>68505.258379999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>19.029238</v>
+        <v>19.029237999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>995.009000</v>
+        <v>995.00900000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.808000</v>
+        <v>-123.80800000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>68516.316188</v>
+        <v>68516.316187999997</v>
       </c>
       <c r="AZ22" s="1">
-        <v>19.032310</v>
+        <v>19.032309999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1004.650000</v>
+        <v>1004.65</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.380000</v>
+        <v>-142.38</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>68527.241566</v>
+        <v>68527.241565999997</v>
       </c>
       <c r="BE22" s="1">
         <v>19.035345</v>
       </c>
       <c r="BF22" s="1">
-        <v>1050.150000</v>
+        <v>1050.1500000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-226.395000</v>
+        <v>-226.39500000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>68538.222993</v>
+        <v>68538.222993000003</v>
       </c>
       <c r="BJ22" s="1">
-        <v>19.038395</v>
+        <v>19.038395000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1129.910000</v>
+        <v>1129.9100000000001</v>
       </c>
       <c r="BL22" s="1">
-        <v>-360.522000</v>
+        <v>-360.52199999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>68549.070530</v>
+        <v>68549.070529999997</v>
       </c>
       <c r="BO22" s="1">
-        <v>19.041408</v>
+        <v>19.041408000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1261.200000</v>
+        <v>1261.2</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-566.729000</v>
+        <v>-566.72900000000004</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>68559.973091</v>
+        <v>68559.973091000007</v>
       </c>
       <c r="BT22" s="1">
-        <v>19.044437</v>
+        <v>19.044436999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1407.980000</v>
+        <v>1407.98</v>
       </c>
       <c r="BV22" s="1">
-        <v>-786.352000</v>
+        <v>-786.35199999999998</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>68570.957460</v>
+        <v>68570.957460000005</v>
       </c>
       <c r="BY22" s="1">
-        <v>19.047488</v>
+        <v>19.047488000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1567.760000</v>
+        <v>1567.76</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1014.870000</v>
+        <v>-1014.87</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>68583.914451</v>
+        <v>68583.914451000004</v>
       </c>
       <c r="CD22" s="1">
-        <v>19.051087</v>
+        <v>19.051086999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1970.120000</v>
+        <v>1970.12</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1548.840000</v>
+        <v>-1548.84</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>68411.551703</v>
+        <v>68411.551703000005</v>
       </c>
       <c r="B23" s="1">
-        <v>19.003209</v>
+        <v>19.003208999999998</v>
       </c>
       <c r="C23" s="1">
-        <v>898.919000</v>
+        <v>898.91899999999998</v>
       </c>
       <c r="D23" s="1">
-        <v>-197.002000</v>
+        <v>-197.00200000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>68422.325305</v>
+        <v>68422.325305000006</v>
       </c>
       <c r="G23" s="1">
-        <v>19.006201</v>
+        <v>19.006201000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>916.969000</v>
+        <v>916.96900000000005</v>
       </c>
       <c r="I23" s="1">
-        <v>-167.310000</v>
+        <v>-167.31</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>68432.630188</v>
+        <v>68432.630187999996</v>
       </c>
       <c r="L23" s="1">
-        <v>19.009064</v>
+        <v>19.009063999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>939.968000</v>
+        <v>939.96799999999996</v>
       </c>
       <c r="N23" s="1">
-        <v>-120.434000</v>
+        <v>-120.434</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>68442.833426</v>
+        <v>68442.833425999997</v>
       </c>
       <c r="Q23" s="1">
-        <v>19.011898</v>
+        <v>19.011897999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>946.963000</v>
+        <v>946.96299999999997</v>
       </c>
       <c r="S23" s="1">
-        <v>-105.012000</v>
+        <v>-105.012</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>68452.636848</v>
+        <v>68452.636847999995</v>
       </c>
       <c r="V23" s="1">
-        <v>19.014621</v>
+        <v>19.014621000000002</v>
       </c>
       <c r="W23" s="1">
-        <v>953.904000</v>
+        <v>953.904</v>
       </c>
       <c r="X23" s="1">
-        <v>-91.040600</v>
+        <v>-91.040599999999998</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>68462.875267</v>
+        <v>68462.875266999996</v>
       </c>
       <c r="AA23" s="1">
-        <v>19.017465</v>
+        <v>19.017465000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>961.309000</v>
+        <v>961.30899999999997</v>
       </c>
       <c r="AC23" s="1">
-        <v>-81.063000</v>
+        <v>-81.063000000000002</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>68472.991639</v>
       </c>
       <c r="AF23" s="1">
-        <v>19.020275</v>
+        <v>19.020275000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>966.461000</v>
+        <v>966.46100000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.430200</v>
+        <v>-80.430199999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>68483.569320</v>
+        <v>68483.569319999995</v>
       </c>
       <c r="AK23" s="1">
-        <v>19.023214</v>
+        <v>19.023213999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>974.416000</v>
+        <v>974.41600000000005</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.800800</v>
+        <v>-87.800799999999995</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>68494.574059</v>
+        <v>68494.574059000006</v>
       </c>
       <c r="AP23" s="1">
-        <v>19.026271</v>
+        <v>19.026271000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>983.621000</v>
+        <v>983.62099999999998</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.508000</v>
+        <v>-102.508</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>68505.567883</v>
+        <v>68505.567882999996</v>
       </c>
       <c r="AU23" s="1">
-        <v>19.029324</v>
+        <v>19.029323999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>995.001000</v>
+        <v>995.00099999999998</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.792000</v>
+        <v>-123.792</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>68516.622716</v>
+        <v>68516.622715999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>19.032395</v>
+        <v>19.032395000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1004.680000</v>
+        <v>1004.68</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.377000</v>
+        <v>-142.37700000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>68527.600670</v>
+        <v>68527.60067</v>
       </c>
       <c r="BE23" s="1">
-        <v>19.035445</v>
+        <v>19.035444999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1050.150000</v>
+        <v>1050.1500000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-226.384000</v>
+        <v>-226.38399999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>68538.599455</v>
+        <v>68538.599455000003</v>
       </c>
       <c r="BJ23" s="1">
-        <v>19.038500</v>
+        <v>19.038499999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1129.900000</v>
+        <v>1129.9000000000001</v>
       </c>
       <c r="BL23" s="1">
-        <v>-360.530000</v>
+        <v>-360.53</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>68549.467793</v>
+        <v>68549.467793000003</v>
       </c>
       <c r="BO23" s="1">
-        <v>19.041519</v>
+        <v>19.041519000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1261.100000</v>
+        <v>1261.0999999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-566.733000</v>
+        <v>-566.73299999999995</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>68560.405107</v>
+        <v>68560.405106999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>19.044557</v>
+        <v>19.044557000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1408.120000</v>
+        <v>1408.12</v>
       </c>
       <c r="BV23" s="1">
-        <v>-786.299000</v>
+        <v>-786.29899999999998</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>68571.384057</v>
+        <v>68571.384057000003</v>
       </c>
       <c r="BY23" s="1">
-        <v>19.047607</v>
+        <v>19.047606999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1567.840000</v>
+        <v>1567.84</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1014.700000</v>
+        <v>-1014.7</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>68584.455091</v>
+        <v>68584.455090999996</v>
       </c>
       <c r="CD23" s="1">
-        <v>19.051238</v>
+        <v>19.051238000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1968.970000</v>
+        <v>1968.97</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1547.190000</v>
+        <v>-1547.19</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>68412.208938</v>
+        <v>68412.208937999996</v>
       </c>
       <c r="B24" s="1">
-        <v>19.003391</v>
+        <v>19.003391000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>898.805000</v>
+        <v>898.80499999999995</v>
       </c>
       <c r="D24" s="1">
-        <v>-196.847000</v>
+        <v>-196.84700000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>68422.695817</v>
@@ -6150,360 +6566,360 @@
         <v>19.006304</v>
       </c>
       <c r="H24" s="1">
-        <v>916.640000</v>
+        <v>916.64</v>
       </c>
       <c r="I24" s="1">
-        <v>-167.248000</v>
+        <v>-167.24799999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>68432.919884</v>
+        <v>68432.919884000003</v>
       </c>
       <c r="L24" s="1">
-        <v>19.009144</v>
+        <v>19.009143999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>940.148000</v>
+        <v>940.14800000000002</v>
       </c>
       <c r="N24" s="1">
-        <v>-120.576000</v>
+        <v>-120.57599999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>68443.178605</v>
+        <v>68443.178604999994</v>
       </c>
       <c r="Q24" s="1">
-        <v>19.011994</v>
+        <v>19.011994000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>946.963000</v>
+        <v>946.96299999999997</v>
       </c>
       <c r="S24" s="1">
-        <v>-105.054000</v>
+        <v>-105.054</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>68452.978064</v>
+        <v>68452.978063999995</v>
       </c>
       <c r="V24" s="1">
         <v>19.014716</v>
       </c>
       <c r="W24" s="1">
-        <v>953.786000</v>
+        <v>953.78599999999994</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.977500</v>
+        <v>-90.977500000000006</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>68463.223924</v>
+        <v>68463.223924000005</v>
       </c>
       <c r="AA24" s="1">
-        <v>19.017562</v>
+        <v>19.017562000000002</v>
       </c>
       <c r="AB24" s="1">
-        <v>961.291000</v>
+        <v>961.29100000000005</v>
       </c>
       <c r="AC24" s="1">
-        <v>-81.063200</v>
+        <v>-81.063199999999995</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>68473.424645</v>
+        <v>68473.424645000006</v>
       </c>
       <c r="AF24" s="1">
-        <v>19.020396</v>
+        <v>19.020396000000002</v>
       </c>
       <c r="AG24" s="1">
-        <v>966.463000</v>
+        <v>966.46299999999997</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.479200</v>
+        <v>-80.479200000000006</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>68483.983975</v>
+        <v>68483.983974999996</v>
       </c>
       <c r="AK24" s="1">
         <v>19.023329</v>
       </c>
       <c r="AL24" s="1">
-        <v>974.431000</v>
+        <v>974.43100000000004</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.819200</v>
+        <v>-87.819199999999995</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>68494.871161</v>
+        <v>68494.871161000003</v>
       </c>
       <c r="AP24" s="1">
         <v>19.026353</v>
       </c>
       <c r="AQ24" s="1">
-        <v>983.591000</v>
+        <v>983.59100000000001</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.510000</v>
+        <v>-102.51</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>68505.929507</v>
+        <v>68505.929506999993</v>
       </c>
       <c r="AU24" s="1">
         <v>19.029425</v>
       </c>
       <c r="AV24" s="1">
-        <v>995.002000</v>
+        <v>995.00199999999995</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.801000</v>
+        <v>-123.801</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>68516.977884</v>
+        <v>68516.977884000007</v>
       </c>
       <c r="AZ24" s="1">
         <v>19.032494</v>
       </c>
       <c r="BA24" s="1">
-        <v>1004.650000</v>
+        <v>1004.65</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.386000</v>
+        <v>-142.386</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>68527.963743</v>
       </c>
       <c r="BE24" s="1">
-        <v>19.035545</v>
+        <v>19.035544999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1050.140000</v>
+        <v>1050.1400000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-226.379000</v>
+        <v>-226.37899999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>68539.348414</v>
+        <v>68539.348413999993</v>
       </c>
       <c r="BJ24" s="1">
         <v>19.038708</v>
       </c>
       <c r="BK24" s="1">
-        <v>1129.890000</v>
+        <v>1129.8900000000001</v>
       </c>
       <c r="BL24" s="1">
-        <v>-360.497000</v>
+        <v>-360.49700000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>68549.888897</v>
+        <v>68549.888896999997</v>
       </c>
       <c r="BO24" s="1">
         <v>19.041636</v>
       </c>
       <c r="BP24" s="1">
-        <v>1261.130000</v>
+        <v>1261.1300000000001</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-566.758000</v>
+        <v>-566.75800000000004</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>68560.832655</v>
+        <v>68560.832655000006</v>
       </c>
       <c r="BT24" s="1">
-        <v>19.044676</v>
+        <v>19.044675999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1408.060000</v>
+        <v>1408.06</v>
       </c>
       <c r="BV24" s="1">
-        <v>-786.388000</v>
+        <v>-786.38800000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>68571.806116</v>
+        <v>68571.806116000007</v>
       </c>
       <c r="BY24" s="1">
-        <v>19.047724</v>
+        <v>19.047723999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1567.880000</v>
+        <v>1567.88</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1014.720000</v>
+        <v>-1014.72</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>68584.991267</v>
+        <v>68584.991267000005</v>
       </c>
       <c r="CD24" s="1">
-        <v>19.051386</v>
+        <v>19.051386000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1969.550000</v>
+        <v>1969.55</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1549.370000</v>
+        <v>-1549.37</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>68412.573494</v>
+        <v>68412.573493999997</v>
       </c>
       <c r="B25" s="1">
-        <v>19.003493</v>
+        <v>19.003492999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>898.781000</v>
+        <v>898.78099999999995</v>
       </c>
       <c r="D25" s="1">
-        <v>-196.944000</v>
+        <v>-196.94399999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>68423.044008</v>
+        <v>68423.044007999997</v>
       </c>
       <c r="G25" s="1">
         <v>19.006401</v>
       </c>
       <c r="H25" s="1">
-        <v>916.542000</v>
+        <v>916.54200000000003</v>
       </c>
       <c r="I25" s="1">
-        <v>-167.678000</v>
+        <v>-167.678</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>68433.270026</v>
+        <v>68433.270025999998</v>
       </c>
       <c r="L25" s="1">
         <v>19.009242</v>
       </c>
       <c r="M25" s="1">
-        <v>940.044000</v>
+        <v>940.04399999999998</v>
       </c>
       <c r="N25" s="1">
-        <v>-120.403000</v>
+        <v>-120.40300000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>68443.526333</v>
+        <v>68443.526333000002</v>
       </c>
       <c r="Q25" s="1">
-        <v>19.012091</v>
+        <v>19.012091000000002</v>
       </c>
       <c r="R25" s="1">
-        <v>946.995000</v>
+        <v>946.995</v>
       </c>
       <c r="S25" s="1">
-        <v>-105.005000</v>
+        <v>-105.005</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>68453.398208</v>
+        <v>68453.398207999999</v>
       </c>
       <c r="V25" s="1">
-        <v>19.014833</v>
+        <v>19.014832999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>953.880000</v>
+        <v>953.88</v>
       </c>
       <c r="X25" s="1">
-        <v>-91.022500</v>
+        <v>-91.022499999999994</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>68463.644531</v>
+        <v>68463.644530999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>19.017679</v>
+        <v>19.017679000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>961.365000</v>
+        <v>961.36500000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-81.167000</v>
+        <v>-81.167000000000002</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>68473.702901</v>
+        <v>68473.702900999997</v>
       </c>
       <c r="AF25" s="1">
-        <v>19.020473</v>
+        <v>19.020472999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>966.410000</v>
+        <v>966.41</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.374600</v>
+        <v>-80.374600000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>68484.274135</v>
       </c>
       <c r="AK25" s="1">
-        <v>19.023409</v>
+        <v>19.023409000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>974.393000</v>
+        <v>974.39300000000003</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.830900</v>
+        <v>-87.8309</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>68495.231753</v>
@@ -6512,118 +6928,118 @@
         <v>19.026453</v>
       </c>
       <c r="AQ25" s="1">
-        <v>983.598000</v>
+        <v>983.59799999999996</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.483000</v>
+        <v>-102.483</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>68506.295059</v>
+        <v>68506.295058999996</v>
       </c>
       <c r="AU25" s="1">
-        <v>19.029526</v>
+        <v>19.029526000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>994.998000</v>
+        <v>994.99800000000005</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.796000</v>
+        <v>-123.79600000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>68517.336459</v>
+        <v>68517.336458999998</v>
       </c>
       <c r="AZ25" s="1">
-        <v>19.032593</v>
+        <v>19.032592999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1004.660000</v>
+        <v>1004.66</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.369000</v>
+        <v>-142.369</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>68528.684926</v>
+        <v>68528.684926000002</v>
       </c>
       <c r="BE25" s="1">
         <v>19.035746</v>
       </c>
       <c r="BF25" s="1">
-        <v>1050.170000</v>
+        <v>1050.17</v>
       </c>
       <c r="BG25" s="1">
-        <v>-226.382000</v>
+        <v>-226.38200000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>68539.725906</v>
+        <v>68539.725906000007</v>
       </c>
       <c r="BJ25" s="1">
-        <v>19.038813</v>
+        <v>19.038813000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1129.910000</v>
+        <v>1129.9100000000001</v>
       </c>
       <c r="BL25" s="1">
-        <v>-360.484000</v>
+        <v>-360.48399999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>68550.289167</v>
+        <v>68550.289166999995</v>
       </c>
       <c r="BO25" s="1">
-        <v>19.041747</v>
+        <v>19.041747000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1261.190000</v>
+        <v>1261.19</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-566.693000</v>
+        <v>-566.69299999999998</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>68561.242849</v>
+        <v>68561.242849000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>19.044790</v>
+        <v>19.044789999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1408.060000</v>
+        <v>1408.06</v>
       </c>
       <c r="BV25" s="1">
-        <v>-786.388000</v>
+        <v>-786.38800000000003</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>68572.247095</v>
+        <v>68572.247094999999</v>
       </c>
       <c r="BY25" s="1">
         <v>19.047846</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1567.790000</v>
+        <v>1567.79</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1014.800000</v>
+        <v>-1014.8</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>68585.846865</v>
@@ -6632,60 +7048,60 @@
         <v>19.051624</v>
       </c>
       <c r="CE25" s="1">
-        <v>1968.330000</v>
+        <v>1968.33</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1547.870000</v>
+        <v>-1547.87</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>68412.920166</v>
+        <v>68412.920165999996</v>
       </c>
       <c r="B26" s="1">
-        <v>19.003589</v>
+        <v>19.003589000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>898.736000</v>
+        <v>898.73599999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-196.860000</v>
+        <v>-196.86</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>68423.386744</v>
+        <v>68423.386744000003</v>
       </c>
       <c r="G26" s="1">
-        <v>19.006496</v>
+        <v>19.006495999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>916.728000</v>
+        <v>916.72799999999995</v>
       </c>
       <c r="I26" s="1">
-        <v>-167.467000</v>
+        <v>-167.46700000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>68433.693610</v>
+        <v>68433.693610000002</v>
       </c>
       <c r="L26" s="1">
         <v>19.009359</v>
       </c>
       <c r="M26" s="1">
-        <v>939.985000</v>
+        <v>939.98500000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-120.504000</v>
+        <v>-120.504</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>68443.944959</v>
@@ -6694,193 +7110,193 @@
         <v>19.012207</v>
       </c>
       <c r="R26" s="1">
-        <v>947.008000</v>
+        <v>947.00800000000004</v>
       </c>
       <c r="S26" s="1">
-        <v>-105.008000</v>
+        <v>-105.008</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>68453.669487</v>
+        <v>68453.669487000006</v>
       </c>
       <c r="V26" s="1">
-        <v>19.014908</v>
+        <v>19.014907999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>953.837000</v>
+        <v>953.83699999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-91.029200</v>
+        <v>-91.029200000000003</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>68463.931715</v>
+        <v>68463.931714999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>19.017759</v>
+        <v>19.017759000000002</v>
       </c>
       <c r="AB26" s="1">
-        <v>961.322000</v>
+        <v>961.322</v>
       </c>
       <c r="AC26" s="1">
-        <v>-81.121000</v>
+        <v>-81.120999999999995</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>68474.045639</v>
+        <v>68474.045639000004</v>
       </c>
       <c r="AF26" s="1">
-        <v>19.020568</v>
+        <v>19.020568000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>966.432000</v>
+        <v>966.43200000000002</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.347700</v>
+        <v>-80.347700000000003</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>68484.679901</v>
+        <v>68484.679900999996</v>
       </c>
       <c r="AK26" s="1">
         <v>19.023522</v>
       </c>
       <c r="AL26" s="1">
-        <v>974.377000</v>
+        <v>974.37699999999995</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.825100</v>
+        <v>-87.825100000000006</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>68495.592840</v>
+        <v>68495.592839999998</v>
       </c>
       <c r="AP26" s="1">
-        <v>19.026554</v>
+        <v>19.026554000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>983.620000</v>
+        <v>983.62</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.498000</v>
+        <v>-102.498</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>68507.023641</v>
+        <v>68507.023641000007</v>
       </c>
       <c r="AU26" s="1">
         <v>19.029729</v>
       </c>
       <c r="AV26" s="1">
-        <v>994.996000</v>
+        <v>994.99599999999998</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.802000</v>
+        <v>-123.80200000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>68518.055164</v>
+        <v>68518.055164000005</v>
       </c>
       <c r="AZ26" s="1">
-        <v>19.032793</v>
+        <v>19.032793000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>1004.670000</v>
+        <v>1004.67</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.382000</v>
+        <v>-142.38200000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>68529.049485</v>
+        <v>68529.049484999996</v>
       </c>
       <c r="BE26" s="1">
         <v>19.035847</v>
       </c>
       <c r="BF26" s="1">
-        <v>1050.160000</v>
+        <v>1050.1600000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-226.395000</v>
+        <v>-226.39500000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>68540.100386</v>
+        <v>68540.100386000006</v>
       </c>
       <c r="BJ26" s="1">
-        <v>19.038917</v>
+        <v>19.038917000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1129.940000</v>
+        <v>1129.94</v>
       </c>
       <c r="BL26" s="1">
-        <v>-360.525000</v>
+        <v>-360.52499999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>68550.705808</v>
+        <v>68550.705807999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>19.041863</v>
+        <v>19.041862999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1261.130000</v>
+        <v>1261.1300000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-566.754000</v>
+        <v>-566.75400000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>68561.976402</v>
       </c>
       <c r="BT26" s="1">
-        <v>19.044993</v>
+        <v>19.044993000000002</v>
       </c>
       <c r="BU26" s="1">
-        <v>1407.980000</v>
+        <v>1407.98</v>
       </c>
       <c r="BV26" s="1">
-        <v>-786.407000</v>
+        <v>-786.40700000000004</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>68572.689523</v>
+        <v>68572.689522999994</v>
       </c>
       <c r="BY26" s="1">
-        <v>19.047969</v>
+        <v>19.047968999999998</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1567.700000</v>
+        <v>1567.7</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1014.860000</v>
+        <v>-1014.86</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>68586.070561</v>
@@ -6889,15 +7305,16 @@
         <v>19.051686</v>
       </c>
       <c r="CE26" s="1">
-        <v>1968.390000</v>
+        <v>1968.39</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1547.630000</v>
+        <v>-1547.63</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>